--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="480">
   <si>
     <t>key</t>
   </si>
@@ -32,7 +32,7 @@
   </si>
   <si>
     <t>1.&amp;nbsp;Delegate numbers shown are the total number available for a given state. Each state and party has its own rules for awarding delegates to candidates. Some state parties award delegates proportionally depending on the results of a caucus, primary or party convention. Other party primaries and caucuses are winner-take-all. Still others are hybrids.&lt;br /&gt;
-2.&amp;nbsp;On the Republican side, American Samoa, Colorado, Guam, North Dakota and Wyoming will not select delegates via caucuses or primaries. In &lt;a href="http://www.thegreenpapers.com/P16/WY-R"&gt;Wyoming&lt;/a&gt;, delegates will be selected at county conventions beginning on March 12.&lt;br /&gt;
+2.&amp;nbsp;On the Republican side, American Samoa, Colorado, Guam, North Dakota, the U.S. Virgin Islands and Wyoming will not select delegates via caucuses or primaries. In &lt;a href="http://www.thegreenpapers.com/P16/WY-R"&gt;Wyoming&lt;/a&gt;, delegates will be selected at county conventions beginning on March 12.&lt;br /&gt;
 3.&amp;nbsp;On the Democratic side, delegate figures include both delegates awarded via the primary/caucus process and "&lt;a href="http://www.npr.org/2015/11/13/455812702/clinton-has-45-to-1-superdelegate-advantage-over-sanders"&gt;superdelegates,&lt;/a&gt;" who may vote as they wish.&lt;br /&gt;
 4.&amp;nbsp;Nebraska will hold presidential primaries on May 10. However, the Democratic Party will use a separate caucus on March 5 to determine its delegate allocation.&lt;br /&gt;
 5.&amp;nbsp;Washington will hold presidential primaries on May 24. However, the Democratic Party will use will use a separate caucus on March 26 to determine its delegate allocation.&lt;br /&gt;
@@ -2536,7 +2536,9 @@
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
@@ -2566,7 +2568,9 @@
       <c r="K12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
@@ -16970,7 +16974,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="70"/>
+      <c r="A7" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="37">
+        <v>73.5</v>
+      </c>
+      <c r="F7" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="37">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="70"/>

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -819,7 +819,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>Saturday, May 10</t>
+    <t>Tuesday, May 10</t>
   </si>
   <si>
     <t>5/10/2016</t>

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="482">
   <si>
     <t>key</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Tuesday, March 8</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>3/8/2016</t>
@@ -3555,6 +3558,12 @@
         <v>38</v>
       </c>
       <c r="L36" s="55"/>
+      <c r="M36" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="49">
+        <v>42435.833333333336</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="s">
@@ -3583,6 +3592,8 @@
         <v>49</v>
       </c>
       <c r="L37" s="55"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
@@ -3601,20 +3612,23 @@
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
       <c r="L38" s="55"/>
+      <c r="M38" s="36" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="33"/>
@@ -3623,7 +3637,7 @@
         <v>36</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K39" s="23" t="s">
         <v>38</v>
@@ -3635,14 +3649,14 @@
         <v>15</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="46"/>
@@ -3663,21 +3677,21 @@
         <v>15</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>47</v>
@@ -3695,21 +3709,21 @@
         <v>15</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I42" s="29" t="s">
         <v>47</v>
@@ -3727,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -3745,14 +3759,14 @@
         <v>15</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="33"/>
@@ -3761,7 +3775,7 @@
         <v>36</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K44" s="23" t="s">
         <v>38</v>
@@ -3773,7 +3787,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="25" t="s">
@@ -3786,13 +3800,13 @@
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
       <c r="I45" s="56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J45" s="57" t="s">
         <v>129</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L45" s="55"/>
     </row>
@@ -3801,21 +3815,21 @@
         <v>15</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="39" t="s">
         <v>133</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
@@ -3829,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
@@ -3847,27 +3861,27 @@
         <v>15</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>49</v>
@@ -3879,27 +3893,27 @@
         <v>15</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K49" s="23" t="s">
         <v>49</v>
@@ -3911,21 +3925,21 @@
         <v>15</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>47</v>
@@ -3943,27 +3957,27 @@
         <v>15</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K51" s="23" t="s">
         <v>49</v>
@@ -3975,27 +3989,27 @@
         <v>15</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K52" s="23" t="s">
         <v>49</v>
@@ -4007,23 +4021,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="44"/>
       <c r="H53" s="45"/>
       <c r="I53" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K53" s="41" t="s">
         <v>38</v>
@@ -4035,7 +4049,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -4053,23 +4067,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="44"/>
       <c r="H55" s="45"/>
       <c r="I55" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J55" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K55" s="41" t="s">
         <v>38</v>
@@ -4081,7 +4095,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -4099,21 +4113,21 @@
         <v>15</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>47</v>
@@ -4131,21 +4145,21 @@
         <v>15</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="34"/>
@@ -4159,14 +4173,14 @@
         <v>15</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="29" t="s">
@@ -4191,7 +4205,7 @@
         <v>15</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
@@ -4204,10 +4218,10 @@
       <c r="G60" s="44"/>
       <c r="H60" s="45"/>
       <c r="I60" s="46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K60" s="41" t="s">
         <v>38</v>
@@ -4219,7 +4233,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="58"/>
       <c r="D61" s="21"/>
@@ -4237,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
@@ -4251,7 +4265,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="34"/>
@@ -4265,21 +4279,21 @@
         <v>15</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="34"/>
@@ -4293,21 +4307,21 @@
         <v>15</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="34"/>
@@ -4321,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -4339,21 +4353,21 @@
         <v>15</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I66" s="59" t="s">
         <v>47</v>
@@ -4371,7 +4385,7 @@
         <v>27</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -4389,7 +4403,7 @@
         <v>15</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
@@ -4403,7 +4417,7 @@
         <v>34</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="34"/>
@@ -4417,7 +4431,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -4435,27 +4449,27 @@
         <v>15</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I70" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K70" s="23" t="s">
         <v>49</v>
@@ -4467,7 +4481,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -4485,21 +4499,21 @@
         <v>15</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C72" s="31"/>
       <c r="D72" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I72" s="29" t="s">
         <v>47</v>
@@ -4517,21 +4531,21 @@
         <v>15</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C73" s="31"/>
       <c r="D73" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>47</v>
@@ -4549,21 +4563,21 @@
         <v>15</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C74" s="31"/>
       <c r="D74" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I74" s="29" t="s">
         <v>45</v>
@@ -4581,27 +4595,27 @@
         <v>15</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C75" s="31"/>
       <c r="D75" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I75" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J75" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K75" s="23" t="s">
         <v>49</v>
@@ -4613,27 +4627,27 @@
         <v>15</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I76" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K76" s="23" t="s">
         <v>49</v>
@@ -4645,7 +4659,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
@@ -4663,27 +4677,27 @@
         <v>15</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C78" s="31"/>
       <c r="D78" s="25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I78" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J78" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K78" s="23" t="s">
         <v>49</v>
@@ -4695,7 +4709,7 @@
         <v>27</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -4713,21 +4727,21 @@
         <v>15</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F80" s="43"/>
       <c r="G80" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I80" s="44"/>
       <c r="J80" s="45"/>
@@ -4741,7 +4755,7 @@
         <v>27</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
@@ -4759,7 +4773,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="25" t="s">
@@ -4770,7 +4784,7 @@
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H82" s="57" t="s">
         <v>37</v>
@@ -4779,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K82" s="23" t="s">
         <v>49</v>
@@ -4791,14 +4805,14 @@
         <v>15</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C83" s="31"/>
       <c r="D83" s="25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="29" t="s">
@@ -4811,7 +4825,7 @@
         <v>47</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K83" s="23" t="s">
         <v>49</v>
@@ -4823,7 +4837,7 @@
         <v>27</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
@@ -4841,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="25" t="s">
@@ -4855,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I85" s="33"/>
       <c r="J85" s="34"/>
@@ -4869,21 +4883,21 @@
         <v>15</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>47</v>
@@ -4901,7 +4915,7 @@
         <v>27</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
@@ -4919,27 +4933,27 @@
         <v>15</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H88" s="57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I88" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J88" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K88" s="23" t="s">
         <v>49</v>
@@ -4951,7 +4965,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -4969,21 +4983,21 @@
         <v>15</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C90" s="48"/>
       <c r="D90" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="39" t="s">
         <v>133</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I90" s="44"/>
       <c r="J90" s="45"/>
@@ -4997,7 +5011,7 @@
         <v>27</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -5015,7 +5029,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C92" s="63"/>
       <c r="D92" s="64" t="s">
@@ -5029,7 +5043,7 @@
         <v>34</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I92" s="68"/>
       <c r="J92" s="69"/>
@@ -5043,7 +5057,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
@@ -5061,27 +5075,27 @@
         <v>15</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C94" s="31"/>
       <c r="D94" s="25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I94" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J94" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K94" s="23" t="s">
         <v>49</v>
@@ -5093,27 +5107,27 @@
         <v>15</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C95" s="31"/>
       <c r="D95" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I95" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J95" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K95" s="23" t="s">
         <v>49</v>
@@ -5125,27 +5139,27 @@
         <v>15</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I96" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J96" s="30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K96" s="23" t="s">
         <v>49</v>
@@ -5157,14 +5171,14 @@
         <v>15</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C97" s="31"/>
       <c r="D97" s="25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="29" t="s">
@@ -5177,7 +5191,7 @@
         <v>47</v>
       </c>
       <c r="J97" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K97" s="23" t="s">
         <v>49</v>
@@ -5189,14 +5203,14 @@
         <v>15</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C98" s="31"/>
       <c r="D98" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="29" t="s">
@@ -5217,21 +5231,21 @@
         <v>15</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C99" s="31"/>
       <c r="D99" s="25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I99" s="29" t="s">
         <v>47</v>
@@ -5249,7 +5263,7 @@
         <v>27</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
@@ -5267,21 +5281,21 @@
         <v>15</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="34"/>
@@ -16919,46 +16933,46 @@
         <v>16</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="80" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q1" s="81"/>
       <c r="R1" s="81"/>
@@ -16973,7 +16987,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" s="36">
         <v>49.9</v>
@@ -16982,19 +16996,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G2" s="36">
         <v>49.6</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I2" s="36">
         <v>0.6</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" s="36">
         <v>27.6</v>
@@ -17003,13 +17017,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N2" s="36">
         <v>24.3</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P2" s="36">
         <v>23.1</v>
@@ -17023,7 +17037,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D3" s="36">
         <v>60.4</v>
@@ -17032,13 +17046,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G3" s="36">
         <v>38.1</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" s="36">
         <v>53.3</v>
@@ -17047,13 +17061,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N3" s="36">
         <v>15.8</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P3" s="36">
         <v>11.7</v>
@@ -17067,7 +17081,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D4" s="36">
         <v>52.7</v>
@@ -17076,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G4" s="36">
         <v>47.2</v>
@@ -17090,7 +17104,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" s="36">
         <v>32.5</v>
@@ -17099,13 +17113,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N5" s="36">
         <v>22.5</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P5" s="36">
         <v>22.3</v>
@@ -17119,7 +17133,7 @@
         <v>52</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" s="36">
         <v>45.9</v>
@@ -17128,13 +17142,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N6" s="36">
         <v>23.9</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P6" s="36">
         <v>21.4</v>
@@ -17148,7 +17162,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D7" s="36">
         <v>73.5</v>
@@ -17157,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G7" s="36">
         <v>26.0</v>
@@ -17171,7 +17185,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D8" s="36">
         <v>77.8</v>
@@ -17180,13 +17194,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G8" s="36">
         <v>19.2</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" s="36">
         <v>43.4</v>
@@ -17195,13 +17209,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N8" s="36">
         <v>21.1</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P8" s="36">
         <v>18.7</v>
@@ -17215,7 +17229,7 @@
         <v>74</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K9" s="36">
         <v>36.4</v>
@@ -17224,13 +17238,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N9" s="36">
         <v>33.5</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P9" s="36">
         <v>15.1</v>
@@ -17244,7 +17258,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D10" s="36">
         <v>66.3</v>
@@ -17253,13 +17267,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G10" s="36">
         <v>29.7</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K10" s="84">
         <v>32.8</v>
@@ -17268,13 +17282,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N10" s="86">
         <v>30.5</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P10" s="86">
         <v>24.9</v>
@@ -17288,7 +17302,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D11" s="36">
         <v>59.0</v>
@@ -17297,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G11" s="86">
         <v>40.3</v>
@@ -17311,7 +17325,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D12" s="88">
         <v>71.3</v>
@@ -17320,13 +17334,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G12" s="86">
         <v>28.2</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" s="84">
         <v>38.8</v>
@@ -17335,13 +17349,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N12" s="86">
         <v>24.4</v>
       </c>
       <c r="O12" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P12" s="86">
         <v>23.6</v>
@@ -17355,7 +17369,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D13" s="88">
         <v>50.1</v>
@@ -17364,13 +17378,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G13" s="86">
         <v>48.7</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K13" s="84">
         <v>49.3</v>
@@ -17379,13 +17393,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N13" s="86">
         <v>18.0</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P13" s="86">
         <v>17.9</v>
@@ -17399,7 +17413,7 @@
         <v>100</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D14" s="90">
         <v>61.6</v>
@@ -17408,13 +17422,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G14" s="86">
         <v>38.4</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K14" s="92">
         <v>36.5</v>
@@ -17423,13 +17437,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N14" s="86">
         <v>29.0</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P14" s="86">
         <v>21.3</v>
@@ -17443,7 +17457,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D15" s="90">
         <v>51.9</v>
@@ -17452,13 +17466,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G15" s="86">
         <v>41.5</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K15" s="94">
         <v>34.4</v>
@@ -17467,13 +17481,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N15" s="86">
         <v>28.3</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P15" s="86">
         <v>26.0</v>
@@ -17487,7 +17501,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D16" s="88">
         <v>66.1</v>
@@ -17496,13 +17510,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G16" s="86">
         <v>32.4</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K16" s="84">
         <v>38.9</v>
@@ -17511,13 +17525,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N16" s="86">
         <v>24.7</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P16" s="86">
         <v>21.2</v>
@@ -17531,7 +17545,7 @@
         <v>112</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D17" s="88">
         <v>65.2</v>
@@ -17540,13 +17554,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G17" s="86">
         <v>33.2</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K17" s="94">
         <v>43.8</v>
@@ -17555,13 +17569,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N17" s="86">
         <v>26.8</v>
       </c>
       <c r="O17" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P17" s="86">
         <v>17.7</v>
@@ -17575,7 +17589,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D18" s="90">
         <v>86.1</v>
@@ -17584,13 +17598,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G18" s="86">
         <v>13.6</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K18" s="84">
         <v>32.7</v>
@@ -17599,13 +17613,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N18" s="86">
         <v>30.4</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P18" s="86">
         <v>19.3</v>
@@ -17619,7 +17633,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D19" s="88">
         <v>64.3</v>
@@ -17628,13 +17642,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G19" s="86">
         <v>35.2</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K19" s="84">
         <v>34.7</v>
@@ -17643,13 +17657,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N19" s="86">
         <v>31.9</v>
       </c>
       <c r="O19" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P19" s="86">
         <v>16.9</v>
@@ -17663,7 +17677,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D20" s="95">
         <v>73.0</v>
@@ -17672,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G20" s="95">
         <v>27.0</v>
@@ -17686,7 +17700,7 @@
         <v>141</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D21" s="90">
         <v>67.7</v>
@@ -17695,13 +17709,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G21" s="86">
         <v>32.3</v>
       </c>
       <c r="J21" s="93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K21" s="94">
         <v>48.2</v>
@@ -17710,13 +17724,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N21" s="86">
         <v>23.3</v>
       </c>
       <c r="O21" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P21" s="86">
         <v>16.7</v>
@@ -17730,7 +17744,7 @@
         <v>145</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K22" s="84">
         <v>35.9</v>
@@ -17739,13 +17753,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N22" s="86">
         <v>31.6</v>
       </c>
       <c r="O22" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P22" s="86">
         <v>16.4</v>
@@ -17759,7 +17773,7 @@
         <v>150</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D23" s="88">
         <v>71.1</v>
@@ -17768,13 +17782,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G23" s="86">
         <v>23.2</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K23" s="84">
         <v>41.4</v>
@@ -17783,13 +17797,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N23" s="86">
         <v>37.8</v>
       </c>
       <c r="O23" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P23" s="86">
         <v>11.2</v>
@@ -17803,7 +17817,7 @@
         <v>153</v>
       </c>
       <c r="J24" s="93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K24" s="94">
         <v>45.9</v>
@@ -17812,13 +17826,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N24" s="86">
         <v>32.6</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P24" s="86">
         <v>12.2</v>
@@ -17832,7 +17846,7 @@
         <v>156</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D25" s="90">
         <v>57.1</v>
@@ -17841,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G25" s="86">
         <v>42.9</v>
@@ -20800,13 +20814,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>23</v>
@@ -20839,7 +20853,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -20855,14 +20869,14 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
@@ -20874,14 +20888,14 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -20892,7 +20906,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -20908,14 +20922,14 @@
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -20927,14 +20941,14 @@
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -20959,14 +20973,14 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -20978,14 +20992,14 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
@@ -21010,14 +21024,14 @@
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
@@ -21042,14 +21056,14 @@
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
@@ -21078,14 +21092,14 @@
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
@@ -21097,14 +21111,14 @@
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18">
@@ -21116,14 +21130,14 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19">
@@ -21135,14 +21149,14 @@
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>131</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20">
@@ -21154,14 +21168,14 @@
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21">
@@ -21173,14 +21187,14 @@
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22">
@@ -21192,14 +21206,14 @@
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
@@ -21211,14 +21225,14 @@
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24">
@@ -21230,14 +21244,14 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25">
@@ -21249,14 +21263,14 @@
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26">
@@ -21268,14 +21282,14 @@
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27">
@@ -21287,14 +21301,14 @@
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28">
@@ -21306,14 +21320,14 @@
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29">
@@ -21325,14 +21339,14 @@
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>101</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30">
@@ -21344,14 +21358,14 @@
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31">
@@ -21363,14 +21377,14 @@
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
@@ -21382,14 +21396,14 @@
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33">
@@ -21401,14 +21415,14 @@
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
@@ -21420,14 +21434,14 @@
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
@@ -21439,14 +21453,14 @@
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>113</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
@@ -21458,14 +21472,14 @@
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
@@ -21477,14 +21491,14 @@
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
@@ -21496,14 +21510,14 @@
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>117</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -21515,14 +21529,14 @@
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>122</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
@@ -21534,14 +21548,14 @@
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
@@ -21553,14 +21567,14 @@
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E41" s="38" t="s">
         <v>127</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42">
@@ -21568,7 +21582,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -21585,14 +21599,14 @@
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>142</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
@@ -21604,14 +21618,14 @@
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>142</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
@@ -21623,14 +21637,14 @@
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>146</v>
       </c>
       <c r="F45" s="101"/>
       <c r="G45" s="101" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46">
@@ -21642,14 +21656,14 @@
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>151</v>
       </c>
       <c r="F46" s="101"/>
       <c r="G46" s="101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
@@ -21661,14 +21675,14 @@
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>151</v>
       </c>
       <c r="F47" s="101"/>
       <c r="G47" s="101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48">
@@ -21680,14 +21694,14 @@
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>154</v>
       </c>
       <c r="F48" s="101"/>
       <c r="G48" s="101" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
@@ -21699,14 +21713,14 @@
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
@@ -21714,7 +21728,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -21731,14 +21745,14 @@
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>154</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52">
@@ -21750,14 +21764,14 @@
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>163</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
@@ -21765,7 +21779,7 @@
         <v>27</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -21778,18 +21792,18 @@
         <v>15</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
@@ -21797,18 +21811,18 @@
         <v>15</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
@@ -21816,18 +21830,18 @@
         <v>15</v>
       </c>
       <c r="B56" s="99" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
@@ -21835,18 +21849,18 @@
         <v>15</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
@@ -21854,18 +21868,18 @@
         <v>15</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59">
@@ -21873,18 +21887,18 @@
         <v>15</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
@@ -21892,18 +21906,18 @@
         <v>15</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
@@ -21911,7 +21925,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -21924,18 +21938,18 @@
         <v>15</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63">
@@ -21943,18 +21957,18 @@
         <v>15</v>
       </c>
       <c r="B63" s="99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64">
@@ -21962,18 +21976,18 @@
         <v>15</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65">
@@ -21981,10 +21995,10 @@
         <v>27</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -21996,18 +22010,18 @@
         <v>15</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="31" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67">
@@ -22015,18 +22029,18 @@
         <v>15</v>
       </c>
       <c r="B67" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
@@ -22034,18 +22048,18 @@
         <v>15</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
@@ -22053,18 +22067,18 @@
         <v>15</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" s="31"/>
       <c r="D69" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70">
@@ -22072,18 +22086,18 @@
         <v>15</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
@@ -22091,18 +22105,18 @@
         <v>15</v>
       </c>
       <c r="B71" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" s="31"/>
       <c r="D71" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72">
@@ -22110,18 +22124,18 @@
         <v>15</v>
       </c>
       <c r="B72" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" s="31"/>
       <c r="D72" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73">
@@ -22129,18 +22143,18 @@
         <v>15</v>
       </c>
       <c r="B73" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C73" s="31"/>
       <c r="D73" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
@@ -22148,18 +22162,18 @@
         <v>15</v>
       </c>
       <c r="B74" s="99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75">
@@ -22167,18 +22181,18 @@
         <v>15</v>
       </c>
       <c r="B75" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C75" s="31"/>
       <c r="D75" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
@@ -22186,18 +22200,18 @@
         <v>15</v>
       </c>
       <c r="B76" s="98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77">
@@ -22205,7 +22219,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="100" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
@@ -22218,18 +22232,18 @@
         <v>15</v>
       </c>
       <c r="B78" s="99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79">
@@ -22237,7 +22251,7 @@
         <v>27</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -22250,18 +22264,18 @@
         <v>15</v>
       </c>
       <c r="B80" s="99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E80" s="38" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81">
@@ -22269,18 +22283,18 @@
         <v>15</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82">
@@ -22288,18 +22302,18 @@
         <v>15</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83">
@@ -22307,18 +22321,18 @@
         <v>15</v>
       </c>
       <c r="B83" s="98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84">
@@ -22326,18 +22340,18 @@
         <v>15</v>
       </c>
       <c r="B84" s="98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F84" s="24"/>
       <c r="G84" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85">
@@ -22345,16 +22359,16 @@
         <v>15</v>
       </c>
       <c r="B85" s="98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E85" s="31"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86">
@@ -22362,7 +22376,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
@@ -22375,18 +22389,18 @@
         <v>15</v>
       </c>
       <c r="B87" s="98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
@@ -22394,18 +22408,18 @@
         <v>15</v>
       </c>
       <c r="B88" s="98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89">
@@ -22413,18 +22427,18 @@
         <v>15</v>
       </c>
       <c r="B89" s="98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="31"/>
       <c r="D89" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90">
@@ -22432,7 +22446,7 @@
         <v>27</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
@@ -22445,18 +22459,18 @@
         <v>15</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C91" s="31"/>
       <c r="D91" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92">
@@ -22464,18 +22478,18 @@
         <v>15</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93">
@@ -22483,7 +22497,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
@@ -22496,18 +22510,18 @@
         <v>15</v>
       </c>
       <c r="B94" s="98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>127</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95">
@@ -22515,7 +22529,7 @@
         <v>27</v>
       </c>
       <c r="B95" s="100" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
@@ -22528,18 +22542,18 @@
         <v>15</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97">
@@ -22547,18 +22561,18 @@
         <v>15</v>
       </c>
       <c r="B97" s="98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" s="31"/>
       <c r="D97" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F97" s="24"/>
       <c r="G97" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98">
@@ -22566,7 +22580,7 @@
         <v>27</v>
       </c>
       <c r="B98" s="100" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22579,18 +22593,18 @@
         <v>15</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C99" s="31"/>
       <c r="D99" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100">
@@ -22598,18 +22612,18 @@
         <v>15</v>
       </c>
       <c r="B100" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C100" s="31"/>
       <c r="D100" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101">
@@ -22617,18 +22631,18 @@
         <v>15</v>
       </c>
       <c r="B101" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102">
@@ -22636,18 +22650,18 @@
         <v>15</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103">
@@ -22655,18 +22669,18 @@
         <v>15</v>
       </c>
       <c r="B103" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C103" s="31"/>
       <c r="D103" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104">
@@ -22674,18 +22688,18 @@
         <v>15</v>
       </c>
       <c r="B104" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="31"/>
       <c r="D104" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F104" s="24"/>
       <c r="G104" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105">
@@ -22693,18 +22707,18 @@
         <v>15</v>
       </c>
       <c r="B105" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105" s="31"/>
       <c r="D105" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106">
@@ -22712,18 +22726,18 @@
         <v>15</v>
       </c>
       <c r="B106" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C106" s="31"/>
       <c r="D106" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107">
@@ -22731,18 +22745,18 @@
         <v>15</v>
       </c>
       <c r="B107" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C107" s="31"/>
       <c r="D107" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108">
@@ -22750,18 +22764,18 @@
         <v>15</v>
       </c>
       <c r="B108" s="98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="31"/>
       <c r="D108" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
@@ -22769,7 +22783,7 @@
         <v>27</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
@@ -22782,18 +22796,18 @@
         <v>15</v>
       </c>
       <c r="B110" s="98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C110" s="31"/>
       <c r="D110" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111">
@@ -22801,18 +22815,18 @@
         <v>15</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" s="31"/>
       <c r="D111" s="31" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112">
@@ -22820,7 +22834,7 @@
         <v>27</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
@@ -22833,18 +22847,18 @@
         <v>15</v>
       </c>
       <c r="B113" s="99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="38" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E113" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114">
@@ -22852,7 +22866,7 @@
         <v>27</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
@@ -22865,18 +22879,18 @@
         <v>15</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" s="31"/>
       <c r="D115" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116">
@@ -22884,18 +22898,18 @@
         <v>15</v>
       </c>
       <c r="B116" s="98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" s="25"/>
       <c r="D116" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>157</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117">
@@ -22903,18 +22917,18 @@
         <v>15</v>
       </c>
       <c r="B117" s="98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C117" s="31"/>
       <c r="D117" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118">
@@ -22922,18 +22936,18 @@
         <v>15</v>
       </c>
       <c r="B118" s="98" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F118" s="24"/>
       <c r="G118" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119">
@@ -22941,7 +22955,7 @@
         <v>27</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
@@ -22954,18 +22968,18 @@
         <v>15</v>
       </c>
       <c r="B120" s="98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C120" s="31"/>
       <c r="D120" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>146</v>
       </c>
       <c r="F120" s="24"/>
       <c r="G120" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121">
@@ -22973,18 +22987,18 @@
         <v>15</v>
       </c>
       <c r="B121" s="98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C121" s="31"/>
       <c r="D121" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F121" s="24"/>
       <c r="G121" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122">
@@ -22992,18 +23006,18 @@
         <v>15</v>
       </c>
       <c r="B122" s="98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C122" s="31"/>
       <c r="D122" s="31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F122" s="24"/>
       <c r="G122" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123">
@@ -23011,7 +23025,7 @@
         <v>27</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
@@ -23024,18 +23038,18 @@
         <v>15</v>
       </c>
       <c r="B124" s="98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C124" s="25"/>
       <c r="D124" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F124" s="24"/>
       <c r="G124" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125">
@@ -23043,18 +23057,18 @@
         <v>15</v>
       </c>
       <c r="B125" s="98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C125" s="31"/>
       <c r="D125" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F125" s="24"/>
       <c r="G125" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126">
@@ -23062,7 +23076,7 @@
         <v>27</v>
       </c>
       <c r="B126" s="100" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
@@ -23075,18 +23089,18 @@
         <v>15</v>
       </c>
       <c r="B127" s="99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C127" s="48"/>
       <c r="D127" s="48" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128">
@@ -23094,7 +23108,7 @@
         <v>27</v>
       </c>
       <c r="B128" s="102" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
@@ -23107,18 +23121,18 @@
         <v>15</v>
       </c>
       <c r="B129" s="103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C129" s="63"/>
       <c r="D129" s="63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E129" s="64" t="s">
         <v>163</v>
       </c>
       <c r="F129" s="62"/>
       <c r="G129" s="62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130">
@@ -23126,7 +23140,7 @@
         <v>27</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
@@ -23139,18 +23153,18 @@
         <v>15</v>
       </c>
       <c r="B131" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C131" s="31"/>
       <c r="D131" s="31" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132">
@@ -23158,18 +23172,18 @@
         <v>15</v>
       </c>
       <c r="B132" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C132" s="31"/>
       <c r="D132" s="31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133">
@@ -23177,18 +23191,18 @@
         <v>15</v>
       </c>
       <c r="B133" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C133" s="31"/>
       <c r="D133" s="31" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134">
@@ -23196,18 +23210,18 @@
         <v>15</v>
       </c>
       <c r="B134" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C134" s="31"/>
       <c r="D134" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F134" s="24"/>
       <c r="G134" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135">
@@ -23215,18 +23229,18 @@
         <v>15</v>
       </c>
       <c r="B135" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="31"/>
       <c r="D135" s="31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F135" s="24"/>
       <c r="G135" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136">
@@ -23234,18 +23248,18 @@
         <v>15</v>
       </c>
       <c r="B136" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C136" s="31"/>
       <c r="D136" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F136" s="24"/>
       <c r="G136" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137">
@@ -23253,18 +23267,18 @@
         <v>15</v>
       </c>
       <c r="B137" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C137" s="31"/>
       <c r="D137" s="31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F137" s="24"/>
       <c r="G137" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138">
@@ -23272,18 +23286,18 @@
         <v>15</v>
       </c>
       <c r="B138" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C138" s="31"/>
       <c r="D138" s="31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F138" s="24"/>
       <c r="G138" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139">
@@ -23291,18 +23305,18 @@
         <v>15</v>
       </c>
       <c r="B139" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C139" s="31"/>
       <c r="D139" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F139" s="24"/>
       <c r="G139" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140">
@@ -23310,18 +23324,18 @@
         <v>15</v>
       </c>
       <c r="B140" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C140" s="31"/>
       <c r="D140" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F140" s="24"/>
       <c r="G140" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141">
@@ -23329,18 +23343,18 @@
         <v>15</v>
       </c>
       <c r="B141" s="98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C141" s="31"/>
       <c r="D141" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F141" s="24"/>
       <c r="G141" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142">
@@ -23348,7 +23362,7 @@
         <v>27</v>
       </c>
       <c r="B142" s="100" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
@@ -23361,18 +23375,18 @@
         <v>15</v>
       </c>
       <c r="B143" s="98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C143" s="31"/>
       <c r="D143" s="31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F143" s="24"/>
       <c r="G143" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144">

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -542,7 +542,7 @@
     <t>MI</t>
   </si>
   <si>
-    <t>148</t>
+    <t>147</t>
   </si>
   <si>
     <t>Mississippi</t>

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="480">
   <si>
     <t>key</t>
   </si>
@@ -41,7 +41,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>Associated Press, &lt;a href="https://gop.com/2016-gophq/event_schedule/?schedule_type=primary"&gt;Republican Party&lt;/a&gt;, &lt;a href="http://www.thegreenpapers.com/P16/"&gt;The Green Papers&lt;/a&gt;</t>
+    <t>Associated Press, Democratic National Committee, &lt;a href="https://gop.com/2016-gophq/event_schedule/?schedule_type=primary"&gt;Republican Party&lt;/a&gt;, &lt;a href="http://www.thegreenpapers.com/P16/"&gt;The Green Papers&lt;/a&gt;</t>
   </si>
   <si>
     <t>credit</t>
@@ -281,7 +281,7 @@
     <t>Colo.</t>
   </si>
   <si>
-    <t>79</t>
+    <t>78</t>
   </si>
   <si>
     <t>Republican caucuses&lt;sup&gt;2&lt;/sup&gt;</t>
@@ -299,24 +299,27 @@
     <t>Ga.</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>7 p.m.</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mass.</t>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>7 p.m.</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Mass.</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
     <t>Tenn.</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -362,7 +368,7 @@
     <t>TX</t>
   </si>
   <si>
-    <t>252</t>
+    <t>251</t>
   </si>
   <si>
     <t>155</t>
@@ -392,7 +398,7 @@
     <t>Va.</t>
   </si>
   <si>
-    <t>110</t>
+    <t>109</t>
   </si>
   <si>
     <t>49</t>
@@ -422,7 +428,7 @@
     <t>Democratic caucus</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>Democrats Abroad</t>
@@ -542,7 +548,7 @@
     <t>MI</t>
   </si>
   <si>
-    <t>148</t>
+    <t>147</t>
   </si>
   <si>
     <t>Mississippi</t>
@@ -578,9 +584,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Tuesday, March 15</t>
   </si>
   <si>
@@ -638,7 +641,7 @@
     <t>OH</t>
   </si>
   <si>
-    <t>159</t>
+    <t>160</t>
   </si>
   <si>
     <t>66</t>
@@ -698,174 +701,171 @@
     <t>20</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Democratic caucuses&lt;sup&gt;5&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Tuesday, April 5</t>
+  </si>
+  <si>
+    <t>4/5/2016</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Saturday, April 9</t>
+  </si>
+  <si>
+    <t>4/9/2016</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Tuesday, April 19</t>
+  </si>
+  <si>
+    <t>4/19/2016</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Tuesday, April 26</t>
+  </si>
+  <si>
+    <t>4/26/2016</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Tuesday, May 3</t>
+  </si>
+  <si>
+    <t>5/3/2016</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Saturday, May 7</t>
+  </si>
+  <si>
+    <t>5/7/2016</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Tuesday, May 10</t>
+  </si>
+  <si>
+    <t>5/10/2016</t>
+  </si>
+  <si>
+    <t>Democratic primary&lt;sup&gt;4&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>Democratic caucuses&lt;sup&gt;5&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Tuesday, April 5</t>
-  </si>
-  <si>
-    <t>4/5/2016</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Saturday, April 9</t>
-  </si>
-  <si>
-    <t>4/9/2016</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Tuesday, April 19</t>
-  </si>
-  <si>
-    <t>4/19/2016</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Tuesday, April 26</t>
-  </si>
-  <si>
-    <t>4/26/2016</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Tuesday, May 3</t>
-  </si>
-  <si>
-    <t>5/3/2016</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Saturday, May 7</t>
-  </si>
-  <si>
-    <t>5/7/2016</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Tuesday, May 10</t>
-  </si>
-  <si>
-    <t>5/10/2016</t>
-  </si>
-  <si>
-    <t>Democratic primary&lt;sup&gt;4&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
     <t>Tuesday, May 17</t>
   </si>
   <si>
     <t>5/17/2016</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -884,9 +884,6 @@
     <t>Democratic primary&lt;sup&gt;5&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -917,7 +914,7 @@
     <t>CA</t>
   </si>
   <si>
-    <t>546</t>
+    <t>548</t>
   </si>
   <si>
     <t>172</t>
@@ -969,9 +966,6 @@
   </si>
   <si>
     <t>6/14/2016</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
   <si>
     <t>dem_name_1</t>
@@ -1474,7 +1468,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy H:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1531,6 +1525,12 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF141823"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF333333"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -1607,7 +1607,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1892,6 +1892,18 @@
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -2926,13 +2938,13 @@
         <v>45</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>49</v>
@@ -2956,25 +2968,25 @@
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>38</v>
@@ -2998,19 +3010,19 @@
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>47</v>
@@ -3040,25 +3052,25 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>49</v>
@@ -3082,25 +3094,25 @@
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>49</v>
@@ -3124,25 +3136,25 @@
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>49</v>
@@ -3166,25 +3178,25 @@
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>49</v>
@@ -3208,13 +3220,13 @@
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="45"/>
@@ -3222,7 +3234,7 @@
         <v>88</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K26" s="41" t="s">
         <v>38</v>
@@ -3240,19 +3252,19 @@
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="45"/>
@@ -3272,19 +3284,19 @@
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
@@ -3300,7 +3312,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3320,17 +3332,17 @@
         <v>15</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>34</v>
@@ -3351,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N30" s="49">
         <v>42434.625</v>
@@ -3362,17 +3374,17 @@
         <v>15</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="51"/>
@@ -3380,7 +3392,7 @@
         <v>36</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K31" s="54" t="s">
         <v>38</v>
@@ -3389,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N31" s="49">
         <v>42434.708333333336</v>
@@ -3400,29 +3412,29 @@
         <v>15</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G32" s="52" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="I32" s="52" t="s">
         <v>47</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K32" s="54" t="s">
         <v>49</v>
@@ -3442,17 +3454,17 @@
         <v>15</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>
@@ -3469,7 +3481,7 @@
         <v>30</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N33" s="49">
         <v>42434.541666666664</v>
@@ -3480,20 +3492,20 @@
         <v>15</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>37</v>
@@ -3518,7 +3530,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -3529,21 +3541,23 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="55"/>
+      <c r="L35" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="29" t="s">
@@ -3557,7 +3571,9 @@
       <c r="K36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L36" s="55"/>
+      <c r="L36" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="M36" s="36" t="s">
         <v>73</v>
       </c>
@@ -3570,14 +3586,14 @@
         <v>15</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="33"/>
@@ -3591,7 +3607,9 @@
       <c r="K37" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="55"/>
+      <c r="L37" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="M37" s="36"/>
       <c r="N37" s="49"/>
     </row>
@@ -3600,7 +3618,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -3613,7 +3631,7 @@
       <c r="K38" s="21"/>
       <c r="L38" s="55"/>
       <c r="M38" s="36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
@@ -3621,14 +3639,14 @@
         <v>15</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="33"/>
@@ -3637,7 +3655,7 @@
         <v>36</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K39" s="23" t="s">
         <v>38</v>
@@ -3649,14 +3667,14 @@
         <v>15</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="46"/>
@@ -3677,21 +3695,21 @@
         <v>15</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>47</v>
@@ -3709,21 +3727,21 @@
         <v>15</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C42" s="31"/>
       <c r="D42" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I42" s="29" t="s">
         <v>47</v>
@@ -3741,7 +3759,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -3759,14 +3777,14 @@
         <v>15</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="33"/>
@@ -3775,7 +3793,7 @@
         <v>36</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K44" s="23" t="s">
         <v>38</v>
@@ -3787,26 +3805,26 @@
         <v>15</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="33"/>
       <c r="H45" s="34"/>
       <c r="I45" s="56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L45" s="55"/>
     </row>
@@ -3815,21 +3833,21 @@
         <v>15</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
@@ -3843,7 +3861,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
@@ -3861,27 +3879,27 @@
         <v>15</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>49</v>
@@ -3893,27 +3911,27 @@
         <v>15</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K49" s="23" t="s">
         <v>49</v>
@@ -3925,21 +3943,21 @@
         <v>15</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>47</v>
@@ -3957,27 +3975,27 @@
         <v>15</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K51" s="23" t="s">
         <v>49</v>
@@ -3989,27 +4007,27 @@
         <v>15</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K52" s="23" t="s">
         <v>49</v>
@@ -4021,23 +4039,23 @@
         <v>15</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="44"/>
       <c r="H53" s="45"/>
       <c r="I53" s="39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K53" s="41" t="s">
         <v>38</v>
@@ -4049,7 +4067,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -4067,23 +4085,23 @@
         <v>15</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="44"/>
       <c r="H55" s="45"/>
       <c r="I55" s="39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J55" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K55" s="41" t="s">
         <v>38</v>
@@ -4095,7 +4113,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
@@ -4113,27 +4131,27 @@
         <v>15</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K57" s="23" t="s">
         <v>49</v>
@@ -4145,21 +4163,21 @@
         <v>15</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="34"/>
@@ -4173,14 +4191,14 @@
         <v>15</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="29" t="s">
@@ -4205,23 +4223,23 @@
         <v>15</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="44"/>
       <c r="H60" s="45"/>
       <c r="I60" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K60" s="41" t="s">
         <v>38</v>
@@ -4233,7 +4251,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" s="58"/>
       <c r="D61" s="21"/>
@@ -4251,7 +4269,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
@@ -4265,7 +4283,7 @@
         <v>34</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="34"/>
@@ -4279,21 +4297,21 @@
         <v>15</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="34"/>
@@ -4307,21 +4325,21 @@
         <v>15</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="34"/>
@@ -4335,7 +4353,7 @@
         <v>27</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -4353,27 +4371,27 @@
         <v>15</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I66" s="59" t="s">
         <v>47</v>
       </c>
       <c r="J66" s="60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K66" s="23" t="s">
         <v>49</v>
@@ -4385,7 +4403,7 @@
         <v>27</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
@@ -4403,21 +4421,21 @@
         <v>15</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="29" t="s">
         <v>34</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="34"/>
@@ -4431,7 +4449,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -4449,27 +4467,27 @@
         <v>15</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I70" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K70" s="23" t="s">
         <v>49</v>
@@ -4481,7 +4499,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
@@ -4499,21 +4517,21 @@
         <v>15</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C72" s="31"/>
       <c r="D72" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="59" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I72" s="29" t="s">
         <v>47</v>
@@ -4531,27 +4549,27 @@
         <v>15</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C73" s="31"/>
       <c r="D73" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J73" s="30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K73" s="23" t="s">
         <v>49</v>
@@ -4563,27 +4581,27 @@
         <v>15</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C74" s="31"/>
       <c r="D74" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I74" s="29" t="s">
         <v>45</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K74" s="23" t="s">
         <v>49</v>
@@ -4595,27 +4613,27 @@
         <v>15</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" s="31"/>
       <c r="D75" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I75" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J75" s="30" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K75" s="23" t="s">
         <v>49</v>
@@ -4627,7 +4645,7 @@
         <v>15</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="25" t="s">
@@ -4647,7 +4665,7 @@
         <v>47</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K76" s="23" t="s">
         <v>49</v>
@@ -4777,10 +4795,10 @@
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="56" t="s">
@@ -4825,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K83" s="23" t="s">
         <v>49</v>
@@ -4837,7 +4855,7 @@
         <v>27</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
@@ -4855,21 +4873,21 @@
         <v>15</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F85" s="26"/>
       <c r="G85" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="I85" s="33"/>
       <c r="J85" s="34"/>
@@ -4883,7 +4901,7 @@
         <v>15</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="25" t="s">
@@ -4937,23 +4955,23 @@
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="56" t="s">
         <v>287</v>
       </c>
       <c r="H88" s="57" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="I88" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J88" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K88" s="23" t="s">
         <v>49</v>
@@ -4965,7 +4983,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -4983,18 +5001,18 @@
         <v>15</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C90" s="48"/>
       <c r="D90" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>272</v>
@@ -5011,7 +5029,7 @@
         <v>27</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -5029,21 +5047,21 @@
         <v>15</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C92" s="63"/>
       <c r="D92" s="64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E92" s="65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F92" s="65"/>
       <c r="G92" s="66" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I92" s="68"/>
       <c r="J92" s="69"/>
@@ -5057,7 +5075,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
@@ -5075,27 +5093,27 @@
         <v>15</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C94" s="31"/>
       <c r="D94" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>298</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I94" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J94" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K94" s="23" t="s">
         <v>49</v>
@@ -5107,27 +5125,27 @@
         <v>15</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C95" s="31"/>
       <c r="D95" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" s="26" t="s">
         <v>301</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>302</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I95" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J95" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K95" s="23" t="s">
         <v>49</v>
@@ -5139,27 +5157,27 @@
         <v>15</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="26" t="s">
         <v>303</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>304</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I96" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J96" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K96" s="23" t="s">
         <v>49</v>
@@ -5171,14 +5189,14 @@
         <v>15</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="31"/>
       <c r="D97" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="26" t="s">
         <v>307</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>308</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="29" t="s">
@@ -5191,7 +5209,7 @@
         <v>47</v>
       </c>
       <c r="J97" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K97" s="23" t="s">
         <v>49</v>
@@ -5203,14 +5221,14 @@
         <v>15</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" s="31"/>
       <c r="D98" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="26" t="s">
         <v>310</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>311</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="29" t="s">
@@ -5231,27 +5249,27 @@
         <v>15</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C99" s="31"/>
       <c r="D99" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" s="26" t="s">
         <v>312</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>313</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I99" s="29" t="s">
         <v>47</v>
       </c>
       <c r="J99" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K99" s="23" t="s">
         <v>49</v>
@@ -5263,7 +5281,7 @@
         <v>27</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
@@ -5281,21 +5299,21 @@
         <v>15</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="29" t="s">
         <v>45</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="34"/>
@@ -16933,46 +16951,46 @@
         <v>16</v>
       </c>
       <c r="C1" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="G1" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="I1" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="J1" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="K1" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="L1" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="O1" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="P1" s="80" t="s">
         <v>329</v>
-      </c>
-      <c r="O1" s="80" t="s">
-        <v>330</v>
-      </c>
-      <c r="P1" s="80" t="s">
-        <v>331</v>
       </c>
       <c r="Q1" s="81"/>
       <c r="R1" s="81"/>
@@ -16987,7 +17005,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="36">
         <v>49.9</v>
@@ -16996,19 +17014,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G2" s="36">
         <v>49.6</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I2" s="36">
         <v>0.6</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K2" s="36">
         <v>27.6</v>
@@ -17017,13 +17035,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N2" s="36">
         <v>24.3</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P2" s="36">
         <v>23.1</v>
@@ -17037,7 +17055,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D3" s="36">
         <v>60.4</v>
@@ -17046,13 +17064,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G3" s="36">
         <v>38.1</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K3" s="36">
         <v>53.3</v>
@@ -17061,13 +17079,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N3" s="36">
         <v>15.8</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P3" s="36">
         <v>11.7</v>
@@ -17081,7 +17099,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="36">
         <v>52.7</v>
@@ -17090,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G4" s="36">
         <v>47.2</v>
@@ -17104,7 +17122,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K5" s="36">
         <v>32.5</v>
@@ -17113,13 +17131,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N5" s="36">
         <v>22.5</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P5" s="36">
         <v>22.3</v>
@@ -17133,7 +17151,7 @@
         <v>52</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K6" s="36">
         <v>45.9</v>
@@ -17142,13 +17160,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N6" s="36">
         <v>23.9</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P6" s="36">
         <v>21.4</v>
@@ -17162,7 +17180,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D7" s="36">
         <v>73.5</v>
@@ -17171,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G7" s="36">
         <v>26.0</v>
@@ -17185,7 +17203,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D8" s="36">
         <v>77.8</v>
@@ -17194,13 +17212,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G8" s="36">
         <v>19.2</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K8" s="36">
         <v>43.4</v>
@@ -17209,13 +17227,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N8" s="36">
         <v>21.1</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P8" s="36">
         <v>18.7</v>
@@ -17229,7 +17247,7 @@
         <v>74</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K9" s="36">
         <v>36.4</v>
@@ -17238,13 +17256,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N9" s="36">
         <v>33.5</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P9" s="36">
         <v>15.1</v>
@@ -17258,7 +17276,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="36">
         <v>66.3</v>
@@ -17267,13 +17285,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G10" s="36">
         <v>29.7</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K10" s="84">
         <v>32.8</v>
@@ -17282,13 +17300,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N10" s="86">
         <v>30.5</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P10" s="86">
         <v>24.9</v>
@@ -17302,7 +17320,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D11" s="36">
         <v>59.0</v>
@@ -17311,7 +17329,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G11" s="86">
         <v>40.3</v>
@@ -17325,7 +17343,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="88">
         <v>71.3</v>
@@ -17334,13 +17352,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G12" s="86">
         <v>28.2</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K12" s="84">
         <v>38.8</v>
@@ -17349,13 +17367,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N12" s="86">
         <v>24.4</v>
       </c>
       <c r="O12" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P12" s="86">
         <v>23.6</v>
@@ -17369,7 +17387,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D13" s="88">
         <v>50.1</v>
@@ -17378,13 +17396,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G13" s="86">
         <v>48.7</v>
       </c>
       <c r="J13" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K13" s="84">
         <v>49.3</v>
@@ -17393,13 +17411,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="85" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N13" s="86">
         <v>18.0</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P13" s="86">
         <v>17.9</v>
@@ -17410,10 +17428,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D14" s="90">
         <v>61.6</v>
@@ -17422,13 +17440,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G14" s="86">
         <v>38.4</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K14" s="92">
         <v>36.5</v>
@@ -17437,13 +17455,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N14" s="86">
         <v>29.0</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P14" s="86">
         <v>21.3</v>
@@ -17454,10 +17472,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D15" s="90">
         <v>51.9</v>
@@ -17466,13 +17484,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G15" s="86">
         <v>41.5</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K15" s="94">
         <v>34.4</v>
@@ -17481,13 +17499,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N15" s="86">
         <v>28.3</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P15" s="86">
         <v>26.0</v>
@@ -17498,10 +17516,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D16" s="88">
         <v>66.1</v>
@@ -17510,13 +17528,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G16" s="86">
         <v>32.4</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K16" s="84">
         <v>38.9</v>
@@ -17525,13 +17543,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N16" s="86">
         <v>24.7</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P16" s="86">
         <v>21.2</v>
@@ -17542,10 +17560,10 @@
         <v>68</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D17" s="88">
         <v>65.2</v>
@@ -17554,13 +17572,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G17" s="86">
         <v>33.2</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K17" s="94">
         <v>43.8</v>
@@ -17569,13 +17587,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N17" s="86">
         <v>26.8</v>
       </c>
       <c r="O17" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P17" s="86">
         <v>17.7</v>
@@ -17586,10 +17604,10 @@
         <v>68</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D18" s="90">
         <v>86.1</v>
@@ -17598,13 +17616,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G18" s="86">
         <v>13.6</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K18" s="84">
         <v>32.7</v>
@@ -17613,13 +17631,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N18" s="86">
         <v>30.4</v>
       </c>
       <c r="O18" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P18" s="86">
         <v>19.3</v>
@@ -17630,10 +17648,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D19" s="88">
         <v>64.3</v>
@@ -17642,13 +17660,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G19" s="86">
         <v>35.2</v>
       </c>
       <c r="J19" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K19" s="84">
         <v>34.7</v>
@@ -17657,13 +17675,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N19" s="86">
         <v>31.9</v>
       </c>
       <c r="O19" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P19" s="86">
         <v>16.9</v>
@@ -17674,10 +17692,10 @@
         <v>68</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D20" s="95">
         <v>73.0</v>
@@ -17686,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G20" s="95">
         <v>27.0</v>
@@ -17694,13 +17712,13 @@
     </row>
     <row r="21">
       <c r="A21" s="82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C21" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D21" s="90">
         <v>67.7</v>
@@ -17709,13 +17727,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G21" s="86">
         <v>32.3</v>
       </c>
       <c r="J21" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K21" s="94">
         <v>48.2</v>
@@ -17724,13 +17742,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N21" s="86">
         <v>23.3</v>
       </c>
       <c r="O21" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P21" s="86">
         <v>16.7</v>
@@ -17738,13 +17756,13 @@
     </row>
     <row r="22">
       <c r="A22" s="82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K22" s="84">
         <v>35.9</v>
@@ -17753,13 +17771,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N22" s="86">
         <v>31.6</v>
       </c>
       <c r="O22" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P22" s="86">
         <v>16.4</v>
@@ -17767,13 +17785,13 @@
     </row>
     <row r="23">
       <c r="A23" s="82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D23" s="88">
         <v>71.1</v>
@@ -17782,13 +17800,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G23" s="86">
         <v>23.2</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K23" s="84">
         <v>41.4</v>
@@ -17797,13 +17815,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N23" s="86">
         <v>37.8</v>
       </c>
       <c r="O23" s="85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P23" s="86">
         <v>11.2</v>
@@ -17811,13 +17829,13 @@
     </row>
     <row r="24">
       <c r="A24" s="82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J24" s="93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K24" s="94">
         <v>45.9</v>
@@ -17826,13 +17844,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N24" s="86">
         <v>32.6</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P24" s="86">
         <v>12.2</v>
@@ -17840,13 +17858,13 @@
     </row>
     <row r="25">
       <c r="A25" s="82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C25" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D25" s="90">
         <v>57.1</v>
@@ -17855,17 +17873,63 @@
         <v>1</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G25" s="86">
         <v>42.9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="72"/>
+      <c r="A26" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="97">
+        <v>64.3</v>
+      </c>
+      <c r="E26" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="99">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="72"/>
+      <c r="A27" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="K27" s="97">
+        <v>71.0</v>
+      </c>
+      <c r="L27" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="N27" s="99">
+        <v>13.1</v>
+      </c>
+      <c r="O27" s="98" t="s">
+        <v>333</v>
+      </c>
+      <c r="P27" s="99">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="72"/>
@@ -20814,13 +20878,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>23</v>
@@ -20846,14 +20910,14 @@
       <c r="Z1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -20861,52 +20925,52 @@
       <c r="G2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>346</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -20914,48 +20978,48 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="102" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="102" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="100" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="21"/>
@@ -20965,48 +21029,48 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="102" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="102" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="100" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="21"/>
@@ -21016,29 +21080,29 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="102" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="100" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="21"/>
@@ -21048,29 +21112,29 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="102" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="100" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -21084,505 +21148,505 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="103" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="103" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="103" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="103" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="100" t="s">
-        <v>380</v>
+      <c r="B42" s="104" t="s">
+        <v>378</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -21591,144 +21655,144 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="98" t="s">
-        <v>140</v>
+      <c r="B43" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="98" t="s">
-        <v>140</v>
+      <c r="B44" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="98" t="s">
-        <v>140</v>
+      <c r="B45" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101" t="s">
-        <v>344</v>
+        <v>148</v>
+      </c>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="98" t="s">
-        <v>140</v>
+      <c r="B46" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C46" s="31"/>
       <c r="D46" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101" t="s">
-        <v>348</v>
+        <v>153</v>
+      </c>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="98" t="s">
-        <v>140</v>
+      <c r="B47" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101" t="s">
-        <v>348</v>
+        <v>153</v>
+      </c>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="98" t="s">
-        <v>140</v>
+      <c r="B48" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101" t="s">
-        <v>344</v>
+        <v>156</v>
+      </c>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="98" t="s">
-        <v>140</v>
+      <c r="B49" s="102" t="s">
+        <v>142</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="100" t="s">
-        <v>388</v>
+      <c r="B50" s="104" t="s">
+        <v>386</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -21737,49 +21801,49 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="98" t="s">
-        <v>161</v>
+      <c r="B51" s="102" t="s">
+        <v>163</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="98" t="s">
-        <v>161</v>
+      <c r="B52" s="102" t="s">
+        <v>163</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="100" t="s">
-        <v>391</v>
+      <c r="B53" s="104" t="s">
+        <v>389</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -21788,144 +21852,144 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="98" t="s">
-        <v>166</v>
+      <c r="B54" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="98" t="s">
-        <v>166</v>
+      <c r="B55" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="99" t="s">
-        <v>166</v>
+      <c r="B56" s="103" t="s">
+        <v>168</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="98" t="s">
-        <v>166</v>
+      <c r="B57" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="98" t="s">
-        <v>166</v>
+      <c r="B58" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="98" t="s">
-        <v>166</v>
+      <c r="B59" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="98" t="s">
-        <v>166</v>
+      <c r="B60" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="100" t="s">
-        <v>399</v>
+      <c r="B61" s="104" t="s">
+        <v>397</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -21934,71 +21998,71 @@
       <c r="G61" s="21"/>
     </row>
     <row r="62">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="98" t="s">
-        <v>179</v>
+      <c r="B62" s="102" t="s">
+        <v>181</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="99" t="s">
-        <v>179</v>
+      <c r="B63" s="103" t="s">
+        <v>181</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="98" t="s">
-        <v>179</v>
+      <c r="B64" s="102" t="s">
+        <v>181</v>
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="100" t="s">
-        <v>403</v>
+      <c r="B65" s="104" t="s">
+        <v>401</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -22006,220 +22070,220 @@
       <c r="G65" s="21"/>
     </row>
     <row r="66">
-      <c r="A66" s="97" t="s">
+      <c r="A66" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="98" t="s">
-        <v>188</v>
+      <c r="B66" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C66" s="31"/>
       <c r="D66" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="98" t="s">
-        <v>188</v>
+      <c r="B67" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C67" s="31"/>
       <c r="D67" s="31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="98" t="s">
-        <v>188</v>
+      <c r="B68" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C68" s="31"/>
       <c r="D68" s="31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="98" t="s">
-        <v>188</v>
+      <c r="B69" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C69" s="31"/>
       <c r="D69" s="31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="97" t="s">
+      <c r="A70" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="98" t="s">
-        <v>188</v>
+      <c r="B70" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="98" t="s">
-        <v>188</v>
+      <c r="B71" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C71" s="31"/>
       <c r="D71" s="31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="98" t="s">
-        <v>188</v>
+      <c r="B72" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C72" s="31"/>
       <c r="D72" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="98" t="s">
-        <v>188</v>
+      <c r="B73" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C73" s="31"/>
       <c r="D73" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="99" t="s">
-        <v>188</v>
+      <c r="B74" s="103" t="s">
+        <v>189</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="97" t="s">
+      <c r="A75" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="98" t="s">
-        <v>188</v>
+      <c r="B75" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C75" s="31"/>
       <c r="D75" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="97" t="s">
+      <c r="A76" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="98" t="s">
-        <v>188</v>
+      <c r="B76" s="102" t="s">
+        <v>189</v>
       </c>
       <c r="C76" s="31"/>
       <c r="D76" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="100" t="s">
-        <v>416</v>
+      <c r="B77" s="104" t="s">
+        <v>414</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
@@ -22228,30 +22292,30 @@
       <c r="G77" s="21"/>
     </row>
     <row r="78">
-      <c r="A78" s="97" t="s">
+      <c r="A78" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="99" t="s">
-        <v>211</v>
+      <c r="B78" s="103" t="s">
+        <v>212</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="100" t="s">
-        <v>418</v>
+      <c r="B79" s="104" t="s">
+        <v>416</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -22260,123 +22324,123 @@
       <c r="G79" s="21"/>
     </row>
     <row r="80">
-      <c r="A80" s="97" t="s">
+      <c r="A80" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="99" t="s">
-        <v>215</v>
+      <c r="B80" s="103" t="s">
+        <v>216</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="97" t="s">
+      <c r="A81" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="98" t="s">
-        <v>215</v>
+      <c r="B81" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="C81" s="31"/>
       <c r="D81" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="97" t="s">
+      <c r="A82" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="98" t="s">
-        <v>215</v>
+      <c r="B82" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="C82" s="31"/>
       <c r="D82" s="31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="97" t="s">
+      <c r="A83" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="98" t="s">
-        <v>215</v>
+      <c r="B83" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="98" t="s">
-        <v>215</v>
+      <c r="B84" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F84" s="24"/>
       <c r="G84" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="98" t="s">
-        <v>215</v>
+      <c r="B85" s="102" t="s">
+        <v>216</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E85" s="31"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="96" t="s">
+      <c r="A86" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="100" t="s">
-        <v>425</v>
+      <c r="B86" s="104" t="s">
+        <v>423</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
@@ -22385,68 +22449,68 @@
       <c r="G86" s="21"/>
     </row>
     <row r="87">
-      <c r="A87" s="97" t="s">
+      <c r="A87" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="98" t="s">
-        <v>224</v>
+      <c r="B87" s="102" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="97" t="s">
+      <c r="A88" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="98" t="s">
-        <v>224</v>
+      <c r="B88" s="102" t="s">
+        <v>225</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="97" t="s">
+      <c r="A89" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="98" t="s">
-        <v>224</v>
+      <c r="B89" s="102" t="s">
+        <v>225</v>
       </c>
       <c r="C89" s="31"/>
       <c r="D89" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="96" t="s">
+      <c r="A90" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="100" t="s">
-        <v>429</v>
+      <c r="B90" s="104" t="s">
+        <v>427</v>
       </c>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
@@ -22455,49 +22519,49 @@
       <c r="G90" s="21"/>
     </row>
     <row r="91">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="98" t="s">
-        <v>232</v>
+      <c r="B91" s="102" t="s">
+        <v>233</v>
       </c>
       <c r="C91" s="31"/>
       <c r="D91" s="31" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="98" t="s">
-        <v>232</v>
+      <c r="B92" s="102" t="s">
+        <v>233</v>
       </c>
       <c r="C92" s="31"/>
       <c r="D92" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="96" t="s">
+      <c r="A93" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="100" t="s">
-        <v>432</v>
+      <c r="B93" s="104" t="s">
+        <v>430</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
@@ -22506,30 +22570,30 @@
       <c r="G93" s="21"/>
     </row>
     <row r="94">
-      <c r="A94" s="97" t="s">
+      <c r="A94" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="98" t="s">
-        <v>237</v>
+      <c r="B94" s="102" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="96" t="s">
+      <c r="A95" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="100" t="s">
-        <v>434</v>
+      <c r="B95" s="104" t="s">
+        <v>432</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
@@ -22538,49 +22602,49 @@
       <c r="G95" s="21"/>
     </row>
     <row r="96">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="98" t="s">
-        <v>240</v>
+      <c r="B96" s="102" t="s">
+        <v>241</v>
       </c>
       <c r="C96" s="31"/>
       <c r="D96" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="97" t="s">
+      <c r="A97" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="98" t="s">
-        <v>240</v>
+      <c r="B97" s="102" t="s">
+        <v>241</v>
       </c>
       <c r="C97" s="31"/>
       <c r="D97" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F97" s="24"/>
       <c r="G97" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="100" t="s">
-        <v>437</v>
+      <c r="B98" s="104" t="s">
+        <v>435</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22589,201 +22653,201 @@
       <c r="G98" s="21"/>
     </row>
     <row r="99">
-      <c r="A99" s="97" t="s">
+      <c r="A99" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="98" t="s">
-        <v>246</v>
+      <c r="B99" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C99" s="31"/>
       <c r="D99" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="98" t="s">
-        <v>246</v>
+      <c r="B100" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C100" s="31"/>
       <c r="D100" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="97" t="s">
+      <c r="A101" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="98" t="s">
-        <v>246</v>
+      <c r="B101" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C101" s="31"/>
       <c r="D101" s="31" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="97" t="s">
+      <c r="A102" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="98" t="s">
-        <v>246</v>
+      <c r="B102" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C102" s="31"/>
       <c r="D102" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="97" t="s">
+      <c r="A103" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="98" t="s">
-        <v>246</v>
+      <c r="B103" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C103" s="31"/>
       <c r="D103" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="97" t="s">
+      <c r="A104" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="98" t="s">
-        <v>246</v>
+      <c r="B104" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C104" s="31"/>
       <c r="D104" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F104" s="24"/>
       <c r="G104" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="97" t="s">
+      <c r="A105" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="98" t="s">
-        <v>246</v>
+      <c r="B105" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C105" s="31"/>
       <c r="D105" s="31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="97" t="s">
+      <c r="A106" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="98" t="s">
-        <v>246</v>
+      <c r="B106" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C106" s="31"/>
       <c r="D106" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="97" t="s">
+      <c r="A107" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="98" t="s">
-        <v>246</v>
+      <c r="B107" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C107" s="31"/>
       <c r="D107" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>260</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="97" t="s">
+      <c r="A108" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="98" t="s">
-        <v>246</v>
+      <c r="B108" s="102" t="s">
+        <v>247</v>
       </c>
       <c r="C108" s="31"/>
       <c r="D108" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>260</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="96" t="s">
+      <c r="A109" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B109" s="100" t="s">
-        <v>447</v>
+      <c r="B109" s="104" t="s">
+        <v>445</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
@@ -22792,49 +22856,49 @@
       <c r="G109" s="21"/>
     </row>
     <row r="110">
-      <c r="A110" s="97" t="s">
+      <c r="A110" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="98" t="s">
+      <c r="B110" s="102" t="s">
         <v>263</v>
       </c>
       <c r="C110" s="31"/>
       <c r="D110" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>265</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="97" t="s">
+      <c r="A111" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="98" t="s">
+      <c r="B111" s="102" t="s">
         <v>263</v>
       </c>
       <c r="C111" s="31"/>
       <c r="D111" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>265</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="96" t="s">
+      <c r="A112" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="100" t="s">
-        <v>450</v>
+      <c r="B112" s="104" t="s">
+        <v>448</v>
       </c>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
@@ -22843,30 +22907,30 @@
       <c r="G112" s="21"/>
     </row>
     <row r="113">
-      <c r="A113" s="97" t="s">
+      <c r="A113" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B113" s="99" t="s">
+      <c r="B113" s="103" t="s">
         <v>269</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E113" s="38" t="s">
         <v>271</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="96" t="s">
+      <c r="A114" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="100" t="s">
-        <v>452</v>
+      <c r="B114" s="104" t="s">
+        <v>450</v>
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
@@ -22875,87 +22939,87 @@
       <c r="G114" s="21"/>
     </row>
     <row r="115">
-      <c r="A115" s="97" t="s">
+      <c r="A115" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="98" t="s">
+      <c r="B115" s="102" t="s">
         <v>274</v>
       </c>
       <c r="C115" s="31"/>
       <c r="D115" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F115" s="24"/>
       <c r="G115" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="97" t="s">
+      <c r="A116" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="98" t="s">
+      <c r="B116" s="102" t="s">
         <v>274</v>
       </c>
       <c r="C116" s="25"/>
       <c r="D116" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F116" s="24"/>
       <c r="G116" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="97" t="s">
+      <c r="A117" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B117" s="98" t="s">
+      <c r="B117" s="102" t="s">
         <v>274</v>
       </c>
       <c r="C117" s="31"/>
       <c r="D117" s="31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>278</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="97" t="s">
+      <c r="A118" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="98" t="s">
+      <c r="B118" s="102" t="s">
         <v>274</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>278</v>
       </c>
       <c r="F118" s="24"/>
       <c r="G118" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="96" t="s">
+      <c r="A119" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="100" t="s">
-        <v>457</v>
+      <c r="B119" s="104" t="s">
+        <v>455</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
@@ -22964,68 +23028,68 @@
       <c r="G119" s="21"/>
     </row>
     <row r="120">
-      <c r="A120" s="97" t="s">
+      <c r="A120" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B120" s="98" t="s">
-        <v>280</v>
+      <c r="B120" s="102" t="s">
+        <v>281</v>
       </c>
       <c r="C120" s="31"/>
       <c r="D120" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F120" s="24"/>
       <c r="G120" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="97" t="s">
+      <c r="A121" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B121" s="98" t="s">
-        <v>280</v>
+      <c r="B121" s="102" t="s">
+        <v>281</v>
       </c>
       <c r="C121" s="31"/>
       <c r="D121" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>283</v>
       </c>
       <c r="F121" s="24"/>
       <c r="G121" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="97" t="s">
+      <c r="A122" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="98" t="s">
-        <v>280</v>
+      <c r="B122" s="102" t="s">
+        <v>281</v>
       </c>
       <c r="C122" s="31"/>
       <c r="D122" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>283</v>
       </c>
       <c r="F122" s="24"/>
       <c r="G122" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="96" t="s">
+      <c r="A123" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B123" s="100" t="s">
-        <v>461</v>
+      <c r="B123" s="104" t="s">
+        <v>459</v>
       </c>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
@@ -23034,49 +23098,49 @@
       <c r="G123" s="21"/>
     </row>
     <row r="124">
-      <c r="A124" s="97" t="s">
+      <c r="A124" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="98" t="s">
+      <c r="B124" s="102" t="s">
         <v>286</v>
       </c>
       <c r="C124" s="25"/>
       <c r="D124" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F124" s="24"/>
       <c r="G124" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="97" t="s">
+      <c r="A125" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="98" t="s">
+      <c r="B125" s="102" t="s">
         <v>286</v>
       </c>
       <c r="C125" s="31"/>
       <c r="D125" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F125" s="24"/>
       <c r="G125" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="96" t="s">
+      <c r="A126" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="100" t="s">
-        <v>464</v>
+      <c r="B126" s="104" t="s">
+        <v>462</v>
       </c>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
@@ -23085,30 +23149,30 @@
       <c r="G126" s="21"/>
     </row>
     <row r="127">
-      <c r="A127" s="97" t="s">
+      <c r="A127" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="99" t="s">
-        <v>291</v>
+      <c r="B127" s="103" t="s">
+        <v>290</v>
       </c>
       <c r="C127" s="48"/>
       <c r="D127" s="48" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E127" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="96" t="s">
+      <c r="A128" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="102" t="s">
-        <v>466</v>
+      <c r="B128" s="106" t="s">
+        <v>464</v>
       </c>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
@@ -23117,30 +23181,30 @@
       <c r="G128" s="21"/>
     </row>
     <row r="129">
-      <c r="A129" s="97" t="s">
+      <c r="A129" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="103" t="s">
-        <v>293</v>
+      <c r="B129" s="107" t="s">
+        <v>292</v>
       </c>
       <c r="C129" s="63"/>
       <c r="D129" s="63" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E129" s="64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F129" s="62"/>
       <c r="G129" s="62" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="96" t="s">
+      <c r="A130" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="100" t="s">
-        <v>468</v>
+      <c r="B130" s="104" t="s">
+        <v>466</v>
       </c>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
@@ -23149,220 +23213,220 @@
       <c r="G130" s="21"/>
     </row>
     <row r="131">
-      <c r="A131" s="97" t="s">
+      <c r="A131" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B131" s="98" t="s">
-        <v>296</v>
+      <c r="B131" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C131" s="31"/>
       <c r="D131" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="97" t="s">
+      <c r="A132" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="98" t="s">
-        <v>296</v>
+      <c r="B132" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C132" s="31"/>
       <c r="D132" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="97" t="s">
+      <c r="A133" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B133" s="98" t="s">
-        <v>296</v>
+      <c r="B133" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C133" s="31"/>
       <c r="D133" s="31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="97" t="s">
+      <c r="A134" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B134" s="98" t="s">
-        <v>296</v>
+      <c r="B134" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C134" s="31"/>
       <c r="D134" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F134" s="24"/>
       <c r="G134" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="97" t="s">
+      <c r="A135" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B135" s="98" t="s">
-        <v>296</v>
+      <c r="B135" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C135" s="31"/>
       <c r="D135" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F135" s="24"/>
       <c r="G135" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="97" t="s">
+      <c r="A136" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B136" s="98" t="s">
-        <v>296</v>
+      <c r="B136" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C136" s="31"/>
       <c r="D136" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F136" s="24"/>
       <c r="G136" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="97" t="s">
+      <c r="A137" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="98" t="s">
-        <v>296</v>
+      <c r="B137" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C137" s="31"/>
       <c r="D137" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F137" s="24"/>
       <c r="G137" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="97" t="s">
+      <c r="A138" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="98" t="s">
-        <v>296</v>
+      <c r="B138" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C138" s="31"/>
       <c r="D138" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F138" s="24"/>
       <c r="G138" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="97" t="s">
+      <c r="A139" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="98" t="s">
-        <v>296</v>
+      <c r="B139" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C139" s="31"/>
       <c r="D139" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F139" s="24"/>
       <c r="G139" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="97" t="s">
+      <c r="A140" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="98" t="s">
-        <v>296</v>
+      <c r="B140" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C140" s="31"/>
       <c r="D140" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F140" s="24"/>
       <c r="G140" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="97" t="s">
+      <c r="A141" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="98" t="s">
-        <v>296</v>
+      <c r="B141" s="102" t="s">
+        <v>295</v>
       </c>
       <c r="C141" s="31"/>
       <c r="D141" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F141" s="24"/>
       <c r="G141" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="96" t="s">
+      <c r="A142" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B142" s="100" t="s">
-        <v>480</v>
+      <c r="B142" s="104" t="s">
+        <v>478</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
@@ -23371,27 +23435,27 @@
       <c r="G142" s="21"/>
     </row>
     <row r="143">
-      <c r="A143" s="97" t="s">
+      <c r="A143" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="98" t="s">
-        <v>316</v>
+      <c r="B143" s="102" t="s">
+        <v>315</v>
       </c>
       <c r="C143" s="31"/>
       <c r="D143" s="31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F143" s="24"/>
       <c r="G143" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="104"/>
-      <c r="B144" s="104"/>
+      <c r="A144" s="108"/>
+      <c r="B144" s="108"/>
       <c r="C144" s="72"/>
       <c r="D144" s="72"/>
       <c r="E144" s="72"/>
@@ -23399,8 +23463,8 @@
       <c r="G144" s="76"/>
     </row>
     <row r="145">
-      <c r="A145" s="104"/>
-      <c r="B145" s="104"/>
+      <c r="A145" s="108"/>
+      <c r="B145" s="108"/>
       <c r="C145" s="72"/>
       <c r="D145" s="72"/>
       <c r="E145" s="72"/>
@@ -23408,8 +23472,8 @@
       <c r="G145" s="76"/>
     </row>
     <row r="146">
-      <c r="A146" s="104"/>
-      <c r="B146" s="104"/>
+      <c r="A146" s="108"/>
+      <c r="B146" s="108"/>
       <c r="C146" s="72"/>
       <c r="D146" s="72"/>
       <c r="E146" s="72"/>
@@ -23417,8 +23481,8 @@
       <c r="G146" s="76"/>
     </row>
     <row r="147">
-      <c r="A147" s="104"/>
-      <c r="B147" s="104"/>
+      <c r="A147" s="108"/>
+      <c r="B147" s="108"/>
       <c r="C147" s="72"/>
       <c r="D147" s="72"/>
       <c r="E147" s="72"/>
@@ -23426,8 +23490,8 @@
       <c r="G147" s="76"/>
     </row>
     <row r="148">
-      <c r="A148" s="104"/>
-      <c r="B148" s="104"/>
+      <c r="A148" s="108"/>
+      <c r="B148" s="108"/>
       <c r="C148" s="72"/>
       <c r="D148" s="72"/>
       <c r="E148" s="72"/>
@@ -23435,8 +23499,8 @@
       <c r="G148" s="76"/>
     </row>
     <row r="149">
-      <c r="A149" s="104"/>
-      <c r="B149" s="104"/>
+      <c r="A149" s="108"/>
+      <c r="B149" s="108"/>
       <c r="C149" s="72"/>
       <c r="D149" s="72"/>
       <c r="E149" s="72"/>
@@ -23444,8 +23508,8 @@
       <c r="G149" s="76"/>
     </row>
     <row r="150">
-      <c r="A150" s="104"/>
-      <c r="B150" s="104"/>
+      <c r="A150" s="108"/>
+      <c r="B150" s="108"/>
       <c r="C150" s="72"/>
       <c r="D150" s="72"/>
       <c r="E150" s="72"/>
@@ -23453,8 +23517,8 @@
       <c r="G150" s="76"/>
     </row>
     <row r="151">
-      <c r="A151" s="104"/>
-      <c r="B151" s="104"/>
+      <c r="A151" s="108"/>
+      <c r="B151" s="108"/>
       <c r="C151" s="72"/>
       <c r="D151" s="72"/>
       <c r="E151" s="72"/>
@@ -23462,8 +23526,8 @@
       <c r="G151" s="76"/>
     </row>
     <row r="152">
-      <c r="A152" s="104"/>
-      <c r="B152" s="104"/>
+      <c r="A152" s="108"/>
+      <c r="B152" s="108"/>
       <c r="C152" s="72"/>
       <c r="D152" s="72"/>
       <c r="E152" s="72"/>
@@ -23471,8 +23535,8 @@
       <c r="G152" s="76"/>
     </row>
     <row r="153">
-      <c r="A153" s="104"/>
-      <c r="B153" s="104"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="108"/>
       <c r="C153" s="72"/>
       <c r="D153" s="72"/>
       <c r="E153" s="72"/>
@@ -23480,8 +23544,8 @@
       <c r="G153" s="76"/>
     </row>
     <row r="154">
-      <c r="A154" s="104"/>
-      <c r="B154" s="104"/>
+      <c r="A154" s="108"/>
+      <c r="B154" s="108"/>
       <c r="C154" s="72"/>
       <c r="D154" s="72"/>
       <c r="E154" s="72"/>
@@ -23489,8 +23553,8 @@
       <c r="G154" s="76"/>
     </row>
     <row r="155">
-      <c r="A155" s="104"/>
-      <c r="B155" s="104"/>
+      <c r="A155" s="108"/>
+      <c r="B155" s="108"/>
       <c r="C155" s="72"/>
       <c r="D155" s="72"/>
       <c r="E155" s="72"/>
@@ -23498,8 +23562,8 @@
       <c r="G155" s="76"/>
     </row>
     <row r="156">
-      <c r="A156" s="104"/>
-      <c r="B156" s="104"/>
+      <c r="A156" s="108"/>
+      <c r="B156" s="108"/>
       <c r="C156" s="72"/>
       <c r="D156" s="72"/>
       <c r="E156" s="72"/>
@@ -23507,8 +23571,8 @@
       <c r="G156" s="76"/>
     </row>
     <row r="157">
-      <c r="A157" s="104"/>
-      <c r="B157" s="104"/>
+      <c r="A157" s="108"/>
+      <c r="B157" s="108"/>
       <c r="C157" s="72"/>
       <c r="D157" s="72"/>
       <c r="E157" s="72"/>
@@ -23516,8 +23580,8 @@
       <c r="G157" s="76"/>
     </row>
     <row r="158">
-      <c r="A158" s="104"/>
-      <c r="B158" s="104"/>
+      <c r="A158" s="108"/>
+      <c r="B158" s="108"/>
       <c r="C158" s="72"/>
       <c r="D158" s="72"/>
       <c r="E158" s="72"/>
@@ -23525,8 +23589,8 @@
       <c r="G158" s="76"/>
     </row>
     <row r="159">
-      <c r="A159" s="104"/>
-      <c r="B159" s="104"/>
+      <c r="A159" s="108"/>
+      <c r="B159" s="108"/>
       <c r="C159" s="72"/>
       <c r="D159" s="72"/>
       <c r="E159" s="72"/>
@@ -23534,8 +23598,8 @@
       <c r="G159" s="76"/>
     </row>
     <row r="160">
-      <c r="A160" s="104"/>
-      <c r="B160" s="104"/>
+      <c r="A160" s="108"/>
+      <c r="B160" s="108"/>
       <c r="C160" s="72"/>
       <c r="D160" s="72"/>
       <c r="E160" s="72"/>
@@ -23543,8 +23607,8 @@
       <c r="G160" s="76"/>
     </row>
     <row r="161">
-      <c r="A161" s="104"/>
-      <c r="B161" s="104"/>
+      <c r="A161" s="108"/>
+      <c r="B161" s="108"/>
       <c r="C161" s="72"/>
       <c r="D161" s="72"/>
       <c r="E161" s="72"/>
@@ -23552,8 +23616,8 @@
       <c r="G161" s="76"/>
     </row>
     <row r="162">
-      <c r="A162" s="104"/>
-      <c r="B162" s="104"/>
+      <c r="A162" s="108"/>
+      <c r="B162" s="108"/>
       <c r="C162" s="72"/>
       <c r="D162" s="72"/>
       <c r="E162" s="72"/>
@@ -23561,8 +23625,8 @@
       <c r="G162" s="76"/>
     </row>
     <row r="163">
-      <c r="A163" s="104"/>
-      <c r="B163" s="104"/>
+      <c r="A163" s="108"/>
+      <c r="B163" s="108"/>
       <c r="C163" s="72"/>
       <c r="D163" s="72"/>
       <c r="E163" s="72"/>
@@ -23570,8 +23634,8 @@
       <c r="G163" s="76"/>
     </row>
     <row r="164">
-      <c r="A164" s="104"/>
-      <c r="B164" s="104"/>
+      <c r="A164" s="108"/>
+      <c r="B164" s="108"/>
       <c r="C164" s="72"/>
       <c r="D164" s="72"/>
       <c r="E164" s="72"/>
@@ -23579,8 +23643,8 @@
       <c r="G164" s="76"/>
     </row>
     <row r="165">
-      <c r="A165" s="104"/>
-      <c r="B165" s="104"/>
+      <c r="A165" s="108"/>
+      <c r="B165" s="108"/>
       <c r="C165" s="72"/>
       <c r="D165" s="72"/>
       <c r="E165" s="72"/>
@@ -23588,8 +23652,8 @@
       <c r="G165" s="76"/>
     </row>
     <row r="166">
-      <c r="A166" s="104"/>
-      <c r="B166" s="104"/>
+      <c r="A166" s="108"/>
+      <c r="B166" s="108"/>
       <c r="C166" s="72"/>
       <c r="D166" s="72"/>
       <c r="E166" s="72"/>
@@ -23597,8 +23661,8 @@
       <c r="G166" s="76"/>
     </row>
     <row r="167">
-      <c r="A167" s="104"/>
-      <c r="B167" s="104"/>
+      <c r="A167" s="108"/>
+      <c r="B167" s="108"/>
       <c r="C167" s="72"/>
       <c r="D167" s="72"/>
       <c r="E167" s="72"/>
@@ -23606,8 +23670,8 @@
       <c r="G167" s="76"/>
     </row>
     <row r="168">
-      <c r="A168" s="104"/>
-      <c r="B168" s="104"/>
+      <c r="A168" s="108"/>
+      <c r="B168" s="108"/>
       <c r="C168" s="72"/>
       <c r="D168" s="72"/>
       <c r="E168" s="72"/>
@@ -23615,8 +23679,8 @@
       <c r="G168" s="76"/>
     </row>
     <row r="169">
-      <c r="A169" s="104"/>
-      <c r="B169" s="104"/>
+      <c r="A169" s="108"/>
+      <c r="B169" s="108"/>
       <c r="C169" s="72"/>
       <c r="D169" s="72"/>
       <c r="E169" s="72"/>
@@ -23624,8 +23688,8 @@
       <c r="G169" s="76"/>
     </row>
     <row r="170">
-      <c r="A170" s="104"/>
-      <c r="B170" s="104"/>
+      <c r="A170" s="108"/>
+      <c r="B170" s="108"/>
       <c r="C170" s="72"/>
       <c r="D170" s="72"/>
       <c r="E170" s="72"/>
@@ -23633,8 +23697,8 @@
       <c r="G170" s="76"/>
     </row>
     <row r="171">
-      <c r="A171" s="104"/>
-      <c r="B171" s="104"/>
+      <c r="A171" s="108"/>
+      <c r="B171" s="108"/>
       <c r="C171" s="72"/>
       <c r="D171" s="72"/>
       <c r="E171" s="72"/>
@@ -23642,8 +23706,8 @@
       <c r="G171" s="76"/>
     </row>
     <row r="172">
-      <c r="A172" s="104"/>
-      <c r="B172" s="104"/>
+      <c r="A172" s="108"/>
+      <c r="B172" s="108"/>
       <c r="C172" s="72"/>
       <c r="D172" s="72"/>
       <c r="E172" s="72"/>

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="501">
   <si>
     <t>key</t>
   </si>
@@ -251,6 +251,12 @@
     <t>8 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 8 p.m.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -263,6 +269,12 @@
     <t>12 a.m.</t>
   </si>
   <si>
+    <t>Polls close at 12 a.m.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -281,6 +293,12 @@
     <t>8:30 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 8:30 p.m.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -299,6 +317,12 @@
     <t>9 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 9 p.m.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -317,6 +341,9 @@
     <t>7 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 7 p.m.</t>
+  </si>
+  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -599,21 +626,21 @@
     <t>DC</t>
   </si>
   <si>
+    <t>Republican convention</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
     <t>Polls close at 7 pm</t>
   </si>
   <si>
     <t>Republican county conventions&lt;sup&gt;2&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>Convention</t>
-  </si>
-  <si>
     <t>Polls close at 8 pm</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -690,9 +717,6 @@
   </si>
   <si>
     <t>Polls close at 8:30 p.m. EDT</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ohio</t>
@@ -1780,7 +1804,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2813,10 +2837,12 @@
       <c r="M14" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="39">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O14" s="24"/>
+      <c r="N14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
@@ -2827,13 +2853,13 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
@@ -2841,7 +2867,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>39</v>
@@ -2850,12 +2876,14 @@
         <v>31</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="39">
-        <v>42431.0</v>
-      </c>
-      <c r="O15" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
@@ -2866,25 +2894,25 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>52</v>
@@ -2893,12 +2921,14 @@
         <v>31</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="39">
-        <v>42430.854166666664</v>
-      </c>
-      <c r="O16" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
@@ -2909,25 +2939,25 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>39</v>
@@ -2936,12 +2966,14 @@
         <v>31</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="39">
-        <v>42430.875</v>
-      </c>
-      <c r="O17" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
@@ -2952,25 +2984,25 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>52</v>
@@ -2979,12 +3011,14 @@
         <v>31</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="45">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O18" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="s">
@@ -2995,25 +3029,25 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>52</v>
@@ -3024,10 +3058,12 @@
       <c r="M19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O19" s="24"/>
+      <c r="N19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
@@ -3038,25 +3074,25 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>39</v>
@@ -3065,12 +3101,14 @@
         <v>31</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="45">
-        <v>42430.875</v>
-      </c>
-      <c r="O20" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
@@ -3081,19 +3119,19 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="27" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>50</v>
@@ -3110,10 +3148,12 @@
       <c r="M21" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O21" s="24"/>
+      <c r="N21" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
@@ -3124,25 +3164,25 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>52</v>
@@ -3153,10 +3193,12 @@
       <c r="M22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O22" s="24"/>
+      <c r="N22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
@@ -3167,25 +3209,25 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="27" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>52</v>
@@ -3196,10 +3238,12 @@
       <c r="M23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O23" s="24"/>
+      <c r="N23" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
@@ -3210,25 +3254,25 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>52</v>
@@ -3237,12 +3281,14 @@
         <v>31</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="45">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O24" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N24" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="s">
@@ -3253,25 +3299,25 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>52</v>
@@ -3280,12 +3326,14 @@
         <v>31</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" s="39">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O25" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
@@ -3296,21 +3344,21 @@
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
       <c r="I26" s="49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>39</v>
@@ -3329,19 +3377,19 @@
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="48"/>
@@ -3362,19 +3410,19 @@
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="43"/>
@@ -3391,7 +3439,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3412,29 +3460,29 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>39</v>
@@ -3443,7 +3491,7 @@
         <v>31</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N30" s="52">
         <v>42434.625</v>
@@ -3455,17 +3503,17 @@
         <v>15</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="54"/>
@@ -3473,7 +3521,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K31" s="57" t="s">
         <v>39</v>
@@ -3482,7 +3530,7 @@
         <v>31</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="N31" s="52">
         <v>42434.708333333336</v>
@@ -3494,17 +3542,17 @@
         <v>15</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>48</v>
@@ -3516,7 +3564,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K32" s="57" t="s">
         <v>52</v>
@@ -3525,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N32" s="52">
         <v>42434.875</v>
@@ -3537,17 +3585,17 @@
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G33" s="53"/>
       <c r="H33" s="54"/>
@@ -3564,7 +3612,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N33" s="52">
         <v>42434.541666666664</v>
@@ -3576,20 +3624,20 @@
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>38</v>
@@ -3615,7 +3663,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -3636,14 +3684,14 @@
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="31" t="s">
@@ -3673,14 +3721,14 @@
         <v>15</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="27" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="37"/>
@@ -3706,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3721,7 +3769,7 @@
         <v>31</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O38" s="24"/>
     </row>
@@ -3730,14 +3778,14 @@
         <v>15</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="37"/>
@@ -3746,7 +3794,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>39</v>
@@ -3755,7 +3803,7 @@
         <v>31</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N39" s="52">
         <v>42438.041666666664</v>
@@ -3767,14 +3815,14 @@
         <v>15</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="49"/>
@@ -3792,7 +3840,7 @@
         <v>31</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N40" s="58">
         <v>42437.958333333336</v>
@@ -3804,21 +3852,21 @@
         <v>15</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="27" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>50</v>
@@ -3833,7 +3881,7 @@
         <v>31</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N41" s="52">
         <v>42437.875</v>
@@ -3845,27 +3893,27 @@
         <v>15</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K42" s="25" t="s">
         <v>52</v>
@@ -3886,7 +3934,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -3905,23 +3953,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
       <c r="H44" s="48"/>
       <c r="I44" s="42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K44" s="44" t="s">
         <v>39</v>
@@ -3934,7 +3982,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -3953,30 +4001,30 @@
         <v>15</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="31" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="L46" s="59"/>
       <c r="N46" s="33" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="O46" s="34" t="s">
         <v>41</v>
@@ -3987,33 +4035,33 @@
         <v>15</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="60" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L47" s="59"/>
       <c r="N47" s="33" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -4021,26 +4069,26 @@
         <v>15</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="34" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="42"/>
       <c r="H48" s="43"/>
       <c r="I48" s="42" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J48" s="43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L48" s="59"/>
       <c r="O48" s="24"/>
@@ -4050,21 +4098,21 @@
         <v>15</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="42" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="48"/>
@@ -4079,7 +4127,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
@@ -4098,34 +4146,34 @@
         <v>15</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="27" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I51" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K51" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L51" s="59"/>
       <c r="N51" s="33" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>41</v>
@@ -4136,37 +4184,37 @@
         <v>15</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="27" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I52" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K52" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L52" s="59"/>
       <c r="N52" s="33" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -4174,21 +4222,21 @@
         <v>15</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="27" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I53" s="31" t="s">
         <v>50</v>
@@ -4201,10 +4249,10 @@
       </c>
       <c r="L53" s="59"/>
       <c r="N53" s="33" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -4212,37 +4260,37 @@
         <v>15</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="27" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K54" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L54" s="59"/>
       <c r="N54" s="33" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
@@ -4250,37 +4298,37 @@
         <v>15</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="27" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I55" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K55" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L55" s="59"/>
       <c r="N55" s="33" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
@@ -4288,23 +4336,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
       <c r="H56" s="48"/>
       <c r="I56" s="42" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K56" s="44" t="s">
         <v>39</v>
@@ -4317,7 +4365,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -4336,27 +4384,27 @@
         <v>15</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="27" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I58" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K58" s="25" t="s">
         <v>52</v>
@@ -4369,21 +4417,21 @@
         <v>15</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I59" s="37"/>
       <c r="J59" s="38"/>
@@ -4398,27 +4446,27 @@
         <v>15</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I60" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K60" s="25" t="s">
         <v>39</v>
@@ -4431,23 +4479,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
       <c r="H61" s="48"/>
       <c r="I61" s="49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K61" s="44" t="s">
         <v>39</v>
@@ -4460,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C62" s="62"/>
       <c r="D62" s="22"/>
@@ -4479,21 +4527,21 @@
         <v>15</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I63" s="37"/>
       <c r="J63" s="38"/>
@@ -4508,21 +4556,21 @@
         <v>15</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I64" s="37"/>
       <c r="J64" s="38"/>
@@ -4537,21 +4585,21 @@
         <v>15</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="27" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="31" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="38"/>
@@ -4566,7 +4614,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -4585,27 +4633,27 @@
         <v>15</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="27" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I67" s="63" t="s">
         <v>50</v>
       </c>
       <c r="J67" s="64" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K67" s="25" t="s">
         <v>52</v>
@@ -4618,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -4637,21 +4685,21 @@
         <v>15</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I69" s="37"/>
       <c r="J69" s="38"/>
@@ -4666,7 +4714,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -4685,27 +4733,27 @@
         <v>15</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="27" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K71" s="25" t="s">
         <v>52</v>
@@ -4718,7 +4766,7 @@
         <v>28</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -4737,27 +4785,27 @@
         <v>15</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="27" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="63" t="s">
         <v>48</v>
       </c>
       <c r="H73" s="64" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K73" s="25" t="s">
         <v>52</v>
@@ -4770,27 +4818,27 @@
         <v>15</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="27" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I74" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J74" s="32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K74" s="25" t="s">
         <v>52</v>
@@ -4803,27 +4851,27 @@
         <v>15</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="27" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I75" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K75" s="25" t="s">
         <v>52</v>
@@ -4836,27 +4884,27 @@
         <v>15</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76" s="27" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I76" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J76" s="32" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K76" s="25" t="s">
         <v>52</v>
@@ -4869,27 +4917,27 @@
         <v>15</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="27" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H77" s="32" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I77" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K77" s="25" t="s">
         <v>52</v>
@@ -4902,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -4921,27 +4969,27 @@
         <v>15</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="27" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K79" s="25" t="s">
         <v>52</v>
@@ -4954,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -4973,21 +5021,21 @@
         <v>15</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C81" s="41"/>
       <c r="D81" s="41" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E81" s="46" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F81" s="46"/>
       <c r="G81" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I81" s="47"/>
       <c r="J81" s="48"/>
@@ -5002,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -5021,18 +5069,18 @@
         <v>15</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="60" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H83" s="61" t="s">
         <v>38</v>
@@ -5041,7 +5089,7 @@
         <v>50</v>
       </c>
       <c r="J83" s="32" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="K83" s="25" t="s">
         <v>52</v>
@@ -5054,27 +5102,27 @@
         <v>15</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="27" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I84" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J84" s="32" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K84" s="25" t="s">
         <v>52</v>
@@ -5087,7 +5135,7 @@
         <v>28</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -5106,14 +5154,14 @@
         <v>15</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
@@ -5135,27 +5183,27 @@
         <v>15</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="27" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I87" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K87" s="25" t="s">
         <v>52</v>
@@ -5168,7 +5216,7 @@
         <v>28</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -5187,27 +5235,27 @@
         <v>15</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="27" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="60" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I89" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K89" s="25" t="s">
         <v>52</v>
@@ -5220,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -5239,21 +5287,21 @@
         <v>15</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F91" s="46"/>
       <c r="G91" s="42" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H91" s="43" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I91" s="47"/>
       <c r="J91" s="48"/>
@@ -5268,7 +5316,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
@@ -5287,21 +5335,21 @@
         <v>15</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C93" s="67"/>
       <c r="D93" s="68" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E93" s="69" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F93" s="69"/>
       <c r="G93" s="70" t="s">
         <v>35</v>
       </c>
       <c r="H93" s="71" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I93" s="72"/>
       <c r="J93" s="73"/>
@@ -5316,7 +5364,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -5335,27 +5383,27 @@
         <v>15</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C95" s="35"/>
       <c r="D95" s="27" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I95" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J95" s="32" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K95" s="25" t="s">
         <v>52</v>
@@ -5368,27 +5416,27 @@
         <v>15</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C96" s="35"/>
       <c r="D96" s="27" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I96" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J96" s="32" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K96" s="25" t="s">
         <v>52</v>
@@ -5401,27 +5449,27 @@
         <v>15</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="27" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H97" s="32" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I97" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K97" s="25" t="s">
         <v>52</v>
@@ -5434,14 +5482,14 @@
         <v>15</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C98" s="35"/>
       <c r="D98" s="27" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="31" t="s">
@@ -5454,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K98" s="25" t="s">
         <v>52</v>
@@ -5467,14 +5515,14 @@
         <v>15</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="27" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="31" t="s">
@@ -5496,27 +5544,27 @@
         <v>15</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="27" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H100" s="32" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I100" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K100" s="25" t="s">
         <v>52</v>
@@ -5529,7 +5577,7 @@
         <v>28</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -5548,21 +5596,21 @@
         <v>15</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I102" s="37"/>
       <c r="J102" s="38"/>
@@ -18030,46 +18078,46 @@
         <v>16</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I1" s="83" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="J1" s="83" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K1" s="83" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L1" s="83" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M1" s="83" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O1" s="83" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P1" s="83" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="84"/>
       <c r="R1" s="84"/>
@@ -18084,7 +18132,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D2" s="33">
         <v>49.9</v>
@@ -18093,19 +18141,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G2" s="33">
         <v>49.6</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="I2" s="33">
         <v>0.6</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K2" s="33">
         <v>27.6</v>
@@ -18114,13 +18162,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N2" s="33">
         <v>24.3</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P2" s="33">
         <v>23.1</v>
@@ -18134,7 +18182,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D3" s="33">
         <v>60.4</v>
@@ -18143,13 +18191,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G3" s="33">
         <v>38.1</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K3" s="33">
         <v>53.3</v>
@@ -18158,13 +18206,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N3" s="33">
         <v>15.8</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P3" s="33">
         <v>11.7</v>
@@ -18178,7 +18226,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D4" s="33">
         <v>52.7</v>
@@ -18187,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G4" s="33">
         <v>47.2</v>
@@ -18201,7 +18249,7 @@
         <v>60</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K5" s="33">
         <v>32.5</v>
@@ -18210,13 +18258,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N5" s="33">
         <v>22.5</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P5" s="33">
         <v>22.3</v>
@@ -18230,7 +18278,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K6" s="33">
         <v>45.9</v>
@@ -18239,13 +18287,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N6" s="33">
         <v>23.9</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P6" s="33">
         <v>21.4</v>
@@ -18259,7 +18307,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D7" s="33">
         <v>73.5</v>
@@ -18268,7 +18316,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G7" s="33">
         <v>26.0</v>
@@ -18282,7 +18330,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D8" s="33">
         <v>77.8</v>
@@ -18291,13 +18339,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G8" s="33">
         <v>19.2</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K8" s="33">
         <v>43.4</v>
@@ -18306,13 +18354,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N8" s="33">
         <v>21.1</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P8" s="33">
         <v>18.7</v>
@@ -18323,10 +18371,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K9" s="33">
         <v>36.4</v>
@@ -18335,13 +18383,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N9" s="33">
         <v>33.5</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P9" s="33">
         <v>15.1</v>
@@ -18352,10 +18400,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D10" s="33">
         <v>66.3</v>
@@ -18364,13 +18412,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G10" s="33">
         <v>29.7</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K10" s="86">
         <v>32.8</v>
@@ -18379,13 +18427,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N10" s="88">
         <v>30.5</v>
       </c>
       <c r="O10" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P10" s="88">
         <v>24.9</v>
@@ -18396,10 +18444,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D11" s="33">
         <v>59.0</v>
@@ -18408,7 +18456,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G11" s="88">
         <v>40.3</v>
@@ -18419,10 +18467,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D12" s="90">
         <v>71.3</v>
@@ -18431,13 +18479,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G12" s="88">
         <v>28.2</v>
       </c>
       <c r="J12" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K12" s="86">
         <v>38.8</v>
@@ -18446,13 +18494,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N12" s="88">
         <v>24.4</v>
       </c>
       <c r="O12" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P12" s="88">
         <v>23.6</v>
@@ -18463,10 +18511,10 @@
         <v>71</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D13" s="90">
         <v>50.1</v>
@@ -18475,13 +18523,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G13" s="88">
         <v>48.7</v>
       </c>
       <c r="J13" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K13" s="86">
         <v>49.3</v>
@@ -18490,13 +18538,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N13" s="88">
         <v>18.0</v>
       </c>
       <c r="O13" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P13" s="88">
         <v>17.9</v>
@@ -18507,10 +18555,10 @@
         <v>71</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D14" s="92">
         <v>61.6</v>
@@ -18519,13 +18567,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G14" s="88">
         <v>38.4</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K14" s="94">
         <v>36.5</v>
@@ -18534,13 +18582,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N14" s="88">
         <v>29.0</v>
       </c>
       <c r="O14" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P14" s="88">
         <v>21.3</v>
@@ -18551,10 +18599,10 @@
         <v>71</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D15" s="92">
         <v>51.9</v>
@@ -18563,13 +18611,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G15" s="88">
         <v>41.5</v>
       </c>
       <c r="J15" s="95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K15" s="96">
         <v>34.4</v>
@@ -18578,13 +18626,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N15" s="88">
         <v>28.3</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P15" s="88">
         <v>26.0</v>
@@ -18595,10 +18643,10 @@
         <v>71</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D16" s="90">
         <v>66.1</v>
@@ -18607,13 +18655,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G16" s="88">
         <v>32.4</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K16" s="86">
         <v>38.9</v>
@@ -18622,13 +18670,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N16" s="88">
         <v>24.7</v>
       </c>
       <c r="O16" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P16" s="88">
         <v>21.2</v>
@@ -18639,10 +18687,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C17" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D17" s="90">
         <v>65.2</v>
@@ -18651,13 +18699,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G17" s="88">
         <v>33.2</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K17" s="96">
         <v>43.8</v>
@@ -18666,13 +18714,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N17" s="88">
         <v>26.8</v>
       </c>
       <c r="O17" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P17" s="88">
         <v>17.7</v>
@@ -18683,10 +18731,10 @@
         <v>71</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D18" s="92">
         <v>86.1</v>
@@ -18695,13 +18743,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G18" s="88">
         <v>13.6</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K18" s="86">
         <v>32.7</v>
@@ -18710,13 +18758,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N18" s="88">
         <v>30.4</v>
       </c>
       <c r="O18" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P18" s="88">
         <v>19.3</v>
@@ -18727,10 +18775,10 @@
         <v>71</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D19" s="90">
         <v>64.3</v>
@@ -18739,13 +18787,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G19" s="88">
         <v>35.2</v>
       </c>
       <c r="J19" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K19" s="86">
         <v>34.7</v>
@@ -18754,13 +18802,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N19" s="88">
         <v>31.9</v>
       </c>
       <c r="O19" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P19" s="88">
         <v>16.9</v>
@@ -18771,10 +18819,10 @@
         <v>71</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D20" s="97">
         <v>73.0</v>
@@ -18783,7 +18831,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G20" s="97">
         <v>27.0</v>
@@ -18791,13 +18839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D21" s="92">
         <v>67.7</v>
@@ -18806,13 +18854,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G21" s="88">
         <v>32.3</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K21" s="96">
         <v>48.2</v>
@@ -18821,13 +18869,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N21" s="88">
         <v>23.3</v>
       </c>
       <c r="O21" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P21" s="88">
         <v>16.7</v>
@@ -18835,13 +18883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K22" s="86">
         <v>35.9</v>
@@ -18850,13 +18898,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N22" s="88">
         <v>31.6</v>
       </c>
       <c r="O22" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P22" s="88">
         <v>16.4</v>
@@ -18864,13 +18912,13 @@
     </row>
     <row r="23">
       <c r="A23" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C23" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D23" s="90">
         <v>71.1</v>
@@ -18879,13 +18927,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G23" s="88">
         <v>23.2</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K23" s="86">
         <v>41.4</v>
@@ -18894,13 +18942,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N23" s="88">
         <v>37.8</v>
       </c>
       <c r="O23" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P23" s="88">
         <v>11.2</v>
@@ -18908,13 +18956,13 @@
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K24" s="96">
         <v>45.9</v>
@@ -18923,13 +18971,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N24" s="88">
         <v>32.6</v>
       </c>
       <c r="O24" s="87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P24" s="88">
         <v>12.2</v>
@@ -18937,13 +18985,13 @@
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D25" s="92">
         <v>57.1</v>
@@ -18952,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G25" s="88">
         <v>42.9</v>
@@ -18960,13 +19008,13 @@
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D26" s="99">
         <v>64.3</v>
@@ -18975,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G26" s="101">
         <v>35.5</v>
@@ -18983,13 +19031,13 @@
     </row>
     <row r="27">
       <c r="A27" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J27" s="98" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K27" s="99">
         <v>71.0</v>
@@ -18998,13 +19046,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="100" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N27" s="101">
         <v>13.1</v>
       </c>
       <c r="O27" s="100" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P27" s="101">
         <v>8.6</v>
@@ -19012,13 +19060,13 @@
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K28" s="86">
         <v>42.4</v>
@@ -19027,13 +19075,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N28" s="88">
         <v>32.7</v>
       </c>
       <c r="O28" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P28" s="88">
         <v>13.1</v>
@@ -19041,13 +19089,13 @@
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J29" s="95" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K29" s="96">
         <v>45.4</v>
@@ -19056,13 +19104,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="87" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N29" s="88">
         <v>28.1</v>
       </c>
       <c r="O29" s="87" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P29" s="88">
         <v>15.9</v>
@@ -19070,13 +19118,13 @@
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D30" s="92">
         <v>49.8</v>
@@ -19085,13 +19133,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G30" s="88">
         <v>48.3</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K30" s="86">
         <v>36.5</v>
@@ -19100,13 +19148,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N30" s="88">
         <v>24.9</v>
       </c>
       <c r="O30" s="87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P30" s="88">
         <v>24.3</v>
@@ -19114,13 +19162,13 @@
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D31" s="90">
         <v>82.6</v>
@@ -19129,13 +19177,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G31" s="88">
         <v>16.5</v>
       </c>
       <c r="J31" s="85" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K31" s="86">
         <v>47.3</v>
@@ -19144,13 +19192,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="87" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="N31" s="88">
         <v>36.3</v>
       </c>
       <c r="O31" s="87" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P31" s="88">
         <v>8.8</v>
@@ -22091,13 +22139,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>23</v>
@@ -22130,7 +22178,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -22146,14 +22194,14 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -22165,14 +22213,14 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
@@ -22183,7 +22231,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -22199,14 +22247,14 @@
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7">
@@ -22218,14 +22266,14 @@
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8">
@@ -22250,14 +22298,14 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
@@ -22269,14 +22317,14 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
@@ -22301,14 +22349,14 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
@@ -22333,14 +22381,14 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
@@ -22369,14 +22417,14 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
@@ -22388,14 +22436,14 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18">
@@ -22407,14 +22455,14 @@
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
@@ -22426,14 +22474,14 @@
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
@@ -22445,14 +22493,14 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21">
@@ -22464,14 +22512,14 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22">
@@ -22483,14 +22531,14 @@
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23">
@@ -22502,14 +22550,14 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
@@ -22521,14 +22569,14 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25">
@@ -22540,14 +22588,14 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26">
@@ -22559,14 +22607,14 @@
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27">
@@ -22578,14 +22626,14 @@
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28">
@@ -22597,14 +22645,14 @@
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29">
@@ -22616,14 +22664,14 @@
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30">
@@ -22635,14 +22683,14 @@
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31">
@@ -22654,14 +22702,14 @@
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32">
@@ -22673,14 +22721,14 @@
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33">
@@ -22692,14 +22740,14 @@
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34">
@@ -22711,14 +22759,14 @@
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35">
@@ -22730,14 +22778,14 @@
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36">
@@ -22749,14 +22797,14 @@
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37">
@@ -22768,14 +22816,14 @@
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38">
@@ -22787,14 +22835,14 @@
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
@@ -22806,14 +22854,14 @@
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
@@ -22825,14 +22873,14 @@
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
@@ -22844,14 +22892,14 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
@@ -22859,7 +22907,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -22872,18 +22920,18 @@
         <v>15</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44">
@@ -22891,18 +22939,18 @@
         <v>15</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
@@ -22910,18 +22958,18 @@
         <v>15</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F45" s="107"/>
       <c r="G45" s="107" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46">
@@ -22929,18 +22977,18 @@
         <v>15</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F46" s="107"/>
       <c r="G46" s="107" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -22948,18 +22996,18 @@
         <v>15</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="35" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F47" s="107"/>
       <c r="G47" s="107" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
@@ -22967,18 +23015,18 @@
         <v>15</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F48" s="107"/>
       <c r="G48" s="107" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49">
@@ -22986,18 +23034,18 @@
         <v>15</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
@@ -23005,7 +23053,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -23018,18 +23066,18 @@
         <v>15</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52">
@@ -23037,18 +23085,18 @@
         <v>15</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
@@ -23056,7 +23104,7 @@
         <v>28</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -23069,18 +23117,18 @@
         <v>15</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55">
@@ -23088,18 +23136,18 @@
         <v>15</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="35" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56">
@@ -23107,18 +23155,18 @@
         <v>15</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57">
@@ -23126,18 +23174,18 @@
         <v>15</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58">
@@ -23145,18 +23193,18 @@
         <v>15</v>
       </c>
       <c r="B58" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59">
@@ -23164,18 +23212,18 @@
         <v>15</v>
       </c>
       <c r="B59" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60">
@@ -23183,18 +23231,18 @@
         <v>15</v>
       </c>
       <c r="B60" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
@@ -23202,7 +23250,7 @@
         <v>28</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -23215,18 +23263,18 @@
         <v>15</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63">
@@ -23234,18 +23282,18 @@
         <v>15</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="41" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64">
@@ -23253,18 +23301,18 @@
         <v>15</v>
       </c>
       <c r="B64" s="104" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65">
@@ -23272,10 +23320,10 @@
         <v>28</v>
       </c>
       <c r="B65" s="106" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -23287,18 +23335,18 @@
         <v>15</v>
       </c>
       <c r="B66" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67">
@@ -23306,18 +23354,18 @@
         <v>15</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68">
@@ -23325,18 +23373,18 @@
         <v>15</v>
       </c>
       <c r="B68" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69">
@@ -23344,18 +23392,18 @@
         <v>15</v>
       </c>
       <c r="B69" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70">
@@ -23363,18 +23411,18 @@
         <v>15</v>
       </c>
       <c r="B70" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71">
@@ -23382,18 +23430,18 @@
         <v>15</v>
       </c>
       <c r="B71" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72">
@@ -23401,18 +23449,18 @@
         <v>15</v>
       </c>
       <c r="B72" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73">
@@ -23420,18 +23468,18 @@
         <v>15</v>
       </c>
       <c r="B73" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74">
@@ -23439,18 +23487,18 @@
         <v>15</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F74" s="40"/>
       <c r="G74" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75">
@@ -23458,18 +23506,18 @@
         <v>15</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="35" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76">
@@ -23477,18 +23525,18 @@
         <v>15</v>
       </c>
       <c r="B76" s="104" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76" s="35" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77">
@@ -23496,7 +23544,7 @@
         <v>28</v>
       </c>
       <c r="B77" s="106" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -23509,18 +23557,18 @@
         <v>15</v>
       </c>
       <c r="B78" s="105" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="41" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79">
@@ -23528,7 +23576,7 @@
         <v>28</v>
       </c>
       <c r="B79" s="106" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -23541,18 +23589,18 @@
         <v>15</v>
       </c>
       <c r="B80" s="105" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F80" s="40"/>
       <c r="G80" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81">
@@ -23560,18 +23608,18 @@
         <v>15</v>
       </c>
       <c r="B81" s="104" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C81" s="35"/>
       <c r="D81" s="35" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82">
@@ -23579,18 +23627,18 @@
         <v>15</v>
       </c>
       <c r="B82" s="104" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="35" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83">
@@ -23598,18 +23646,18 @@
         <v>15</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84">
@@ -23617,18 +23665,18 @@
         <v>15</v>
       </c>
       <c r="B84" s="104" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C84" s="27"/>
       <c r="D84" s="27" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85">
@@ -23636,16 +23684,16 @@
         <v>15</v>
       </c>
       <c r="B85" s="104" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="27" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86">
@@ -23653,7 +23701,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -23666,18 +23714,18 @@
         <v>15</v>
       </c>
       <c r="B87" s="104" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="27" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88">
@@ -23685,18 +23733,18 @@
         <v>15</v>
       </c>
       <c r="B88" s="104" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89">
@@ -23704,18 +23752,18 @@
         <v>15</v>
       </c>
       <c r="B89" s="104" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="35" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90">
@@ -23723,7 +23771,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="106" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -23736,18 +23784,18 @@
         <v>15</v>
       </c>
       <c r="B91" s="104" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="35" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92">
@@ -23755,18 +23803,18 @@
         <v>15</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C92" s="35"/>
       <c r="D92" s="35" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F92" s="26"/>
       <c r="G92" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93">
@@ -23774,7 +23822,7 @@
         <v>28</v>
       </c>
       <c r="B93" s="106" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -23787,18 +23835,18 @@
         <v>15</v>
       </c>
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="27" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95">
@@ -23806,7 +23854,7 @@
         <v>28</v>
       </c>
       <c r="B95" s="106" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -23819,18 +23867,18 @@
         <v>15</v>
       </c>
       <c r="B96" s="104" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C96" s="35"/>
       <c r="D96" s="35" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
@@ -23838,18 +23886,18 @@
         <v>15</v>
       </c>
       <c r="B97" s="104" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="35" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98">
@@ -23857,7 +23905,7 @@
         <v>28</v>
       </c>
       <c r="B98" s="106" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -23870,18 +23918,18 @@
         <v>15</v>
       </c>
       <c r="B99" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="35" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100">
@@ -23889,18 +23937,18 @@
         <v>15</v>
       </c>
       <c r="B100" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="35" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101">
@@ -23908,18 +23956,18 @@
         <v>15</v>
       </c>
       <c r="B101" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C101" s="35"/>
       <c r="D101" s="35" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102">
@@ -23927,18 +23975,18 @@
         <v>15</v>
       </c>
       <c r="B102" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="35" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103">
@@ -23946,18 +23994,18 @@
         <v>15</v>
       </c>
       <c r="B103" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C103" s="35"/>
       <c r="D103" s="35" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104">
@@ -23965,18 +24013,18 @@
         <v>15</v>
       </c>
       <c r="B104" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F104" s="26"/>
       <c r="G104" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105">
@@ -23984,18 +24032,18 @@
         <v>15</v>
       </c>
       <c r="B105" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="35" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106">
@@ -24003,18 +24051,18 @@
         <v>15</v>
       </c>
       <c r="B106" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107">
@@ -24022,18 +24070,18 @@
         <v>15</v>
       </c>
       <c r="B107" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="35" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108">
@@ -24041,18 +24089,18 @@
         <v>15</v>
       </c>
       <c r="B108" s="104" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="35" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F108" s="26"/>
       <c r="G108" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109">
@@ -24060,7 +24108,7 @@
         <v>28</v>
       </c>
       <c r="B109" s="106" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
@@ -24073,18 +24121,18 @@
         <v>15</v>
       </c>
       <c r="B110" s="104" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C110" s="35"/>
       <c r="D110" s="35" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F110" s="26"/>
       <c r="G110" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
@@ -24092,18 +24140,18 @@
         <v>15</v>
       </c>
       <c r="B111" s="104" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C111" s="35"/>
       <c r="D111" s="35" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F111" s="26"/>
       <c r="G111" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112">
@@ -24111,7 +24159,7 @@
         <v>28</v>
       </c>
       <c r="B112" s="106" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
@@ -24124,18 +24172,18 @@
         <v>15</v>
       </c>
       <c r="B113" s="105" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="41" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114">
@@ -24143,7 +24191,7 @@
         <v>28</v>
       </c>
       <c r="B114" s="106" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
@@ -24156,18 +24204,18 @@
         <v>15</v>
       </c>
       <c r="B115" s="104" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F115" s="26"/>
       <c r="G115" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116">
@@ -24175,18 +24223,18 @@
         <v>15</v>
       </c>
       <c r="B116" s="104" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C116" s="27"/>
       <c r="D116" s="27" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117">
@@ -24194,18 +24242,18 @@
         <v>15</v>
       </c>
       <c r="B117" s="104" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C117" s="35"/>
       <c r="D117" s="35" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F117" s="26"/>
       <c r="G117" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118">
@@ -24213,18 +24261,18 @@
         <v>15</v>
       </c>
       <c r="B118" s="104" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119">
@@ -24232,7 +24280,7 @@
         <v>28</v>
       </c>
       <c r="B119" s="106" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -24245,18 +24293,18 @@
         <v>15</v>
       </c>
       <c r="B120" s="104" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="35" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121">
@@ -24264,18 +24312,18 @@
         <v>15</v>
       </c>
       <c r="B121" s="104" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C121" s="35"/>
       <c r="D121" s="35" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122">
@@ -24283,18 +24331,18 @@
         <v>15</v>
       </c>
       <c r="B122" s="104" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C122" s="35"/>
       <c r="D122" s="35" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123">
@@ -24302,7 +24350,7 @@
         <v>28</v>
       </c>
       <c r="B123" s="106" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
@@ -24315,18 +24363,18 @@
         <v>15</v>
       </c>
       <c r="B124" s="104" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C124" s="27"/>
       <c r="D124" s="27" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125">
@@ -24334,18 +24382,18 @@
         <v>15</v>
       </c>
       <c r="B125" s="104" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C125" s="35"/>
       <c r="D125" s="35" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126">
@@ -24353,7 +24401,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="106" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
@@ -24366,18 +24414,18 @@
         <v>15</v>
       </c>
       <c r="B127" s="105" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C127" s="51"/>
       <c r="D127" s="51" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F127" s="40"/>
       <c r="G127" s="40" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128">
@@ -24385,7 +24433,7 @@
         <v>28</v>
       </c>
       <c r="B128" s="108" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
@@ -24398,18 +24446,18 @@
         <v>15</v>
       </c>
       <c r="B129" s="109" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C129" s="67"/>
       <c r="D129" s="67" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E129" s="68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="66" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130">
@@ -24417,7 +24465,7 @@
         <v>28</v>
       </c>
       <c r="B130" s="106" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
@@ -24430,18 +24478,18 @@
         <v>15</v>
       </c>
       <c r="B131" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="35" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F131" s="26"/>
       <c r="G131" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132">
@@ -24449,18 +24497,18 @@
         <v>15</v>
       </c>
       <c r="B132" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="35" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133">
@@ -24468,18 +24516,18 @@
         <v>15</v>
       </c>
       <c r="B133" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C133" s="35"/>
       <c r="D133" s="35" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134">
@@ -24487,18 +24535,18 @@
         <v>15</v>
       </c>
       <c r="B134" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C134" s="35"/>
       <c r="D134" s="35" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135">
@@ -24506,18 +24554,18 @@
         <v>15</v>
       </c>
       <c r="B135" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C135" s="35"/>
       <c r="D135" s="35" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136">
@@ -24525,18 +24573,18 @@
         <v>15</v>
       </c>
       <c r="B136" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C136" s="35"/>
       <c r="D136" s="35" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137">
@@ -24544,18 +24592,18 @@
         <v>15</v>
       </c>
       <c r="B137" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C137" s="35"/>
       <c r="D137" s="35" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138">
@@ -24563,18 +24611,18 @@
         <v>15</v>
       </c>
       <c r="B138" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C138" s="35"/>
       <c r="D138" s="35" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139">
@@ -24582,18 +24630,18 @@
         <v>15</v>
       </c>
       <c r="B139" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C139" s="35"/>
       <c r="D139" s="35" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140">
@@ -24601,18 +24649,18 @@
         <v>15</v>
       </c>
       <c r="B140" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C140" s="35"/>
       <c r="D140" s="35" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141">
@@ -24620,18 +24668,18 @@
         <v>15</v>
       </c>
       <c r="B141" s="104" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C141" s="35"/>
       <c r="D141" s="35" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142">
@@ -24639,7 +24687,7 @@
         <v>28</v>
       </c>
       <c r="B142" s="106" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
@@ -24652,18 +24700,18 @@
         <v>15</v>
       </c>
       <c r="B143" s="104" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C143" s="35"/>
       <c r="D143" s="35" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144">

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="501">
   <si>
     <t>key</t>
   </si>
@@ -251,6 +251,12 @@
     <t>8 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 8 p.m.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -263,6 +269,12 @@
     <t>12 a.m.</t>
   </si>
   <si>
+    <t>Polls close at 12 a.m.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -281,6 +293,12 @@
     <t>8:30 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 8:30 p.m.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -299,6 +317,12 @@
     <t>9 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 9 p.m.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -317,6 +341,9 @@
     <t>7 p.m.</t>
   </si>
   <si>
+    <t>Polls close at 7 p.m.</t>
+  </si>
+  <si>
     <t>Massachusetts</t>
   </si>
   <si>
@@ -599,10 +626,19 @@
     <t>DC</t>
   </si>
   <si>
+    <t>Republican convention</t>
+  </si>
+  <si>
+    <t>Convention</t>
+  </si>
+  <si>
+    <t>Polls close at 7 pm</t>
+  </si>
+  <si>
     <t>Republican county conventions&lt;sup&gt;2&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>Convention</t>
+    <t>Polls close at 8 pm</t>
   </si>
   <si>
     <t>Guam</t>
@@ -659,9 +695,6 @@
     <t>Polls close at 8 p.m. EDT</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -684,9 +717,6 @@
   </si>
   <si>
     <t>Polls close at 8:30 p.m. EDT</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Ohio</t>
@@ -1774,7 +1804,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2807,10 +2837,12 @@
       <c r="M14" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="39">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O14" s="24"/>
+      <c r="N14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
@@ -2821,13 +2853,13 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
@@ -2835,7 +2867,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>39</v>
@@ -2844,12 +2876,14 @@
         <v>31</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="39">
-        <v>42431.0</v>
-      </c>
-      <c r="O15" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
@@ -2860,25 +2894,25 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>52</v>
@@ -2887,12 +2921,14 @@
         <v>31</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="39">
-        <v>42430.854166666664</v>
-      </c>
-      <c r="O16" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
@@ -2903,25 +2939,25 @@
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>39</v>
@@ -2930,12 +2966,14 @@
         <v>31</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="39">
-        <v>42430.875</v>
-      </c>
-      <c r="O17" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
@@ -2946,25 +2984,25 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>52</v>
@@ -2973,12 +3011,14 @@
         <v>31</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="45">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O18" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="s">
@@ -2989,25 +3029,25 @@
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>52</v>
@@ -3018,10 +3058,12 @@
       <c r="M19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O19" s="24"/>
+      <c r="N19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
@@ -3032,25 +3074,25 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>39</v>
@@ -3059,12 +3101,14 @@
         <v>31</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="45">
-        <v>42430.875</v>
-      </c>
-      <c r="O20" s="24"/>
+        <v>98</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
@@ -3075,19 +3119,19 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="27" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>50</v>
@@ -3104,10 +3148,12 @@
       <c r="M21" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O21" s="24"/>
+      <c r="N21" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
@@ -3118,25 +3164,25 @@
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="27" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I22" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>52</v>
@@ -3147,10 +3193,12 @@
       <c r="M22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N22" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O22" s="24"/>
+      <c r="N22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
@@ -3161,25 +3209,25 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="27" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>52</v>
@@ -3190,10 +3238,12 @@
       <c r="M23" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="N23" s="45">
-        <v>42430.833333333336</v>
-      </c>
-      <c r="O23" s="24"/>
+      <c r="N23" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
@@ -3204,25 +3254,25 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>52</v>
@@ -3231,12 +3281,14 @@
         <v>31</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="45">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O24" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N24" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="s">
@@ -3247,25 +3299,25 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>52</v>
@@ -3274,12 +3326,14 @@
         <v>31</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" s="39">
-        <v>42430.791666666664</v>
-      </c>
-      <c r="O25" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
@@ -3290,21 +3344,21 @@
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
       <c r="I26" s="49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>39</v>
@@ -3323,19 +3377,19 @@
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="48"/>
@@ -3356,19 +3410,19 @@
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="43"/>
@@ -3385,7 +3439,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -3406,29 +3460,29 @@
         <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>39</v>
@@ -3437,7 +3491,7 @@
         <v>31</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N30" s="52">
         <v>42434.625</v>
@@ -3449,17 +3503,17 @@
         <v>15</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="54"/>
@@ -3467,7 +3521,7 @@
         <v>37</v>
       </c>
       <c r="J31" s="56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K31" s="57" t="s">
         <v>39</v>
@@ -3476,7 +3530,7 @@
         <v>31</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="N31" s="52">
         <v>42434.708333333336</v>
@@ -3488,17 +3542,17 @@
         <v>15</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>48</v>
@@ -3510,7 +3564,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="56" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K32" s="57" t="s">
         <v>52</v>
@@ -3519,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="M32" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N32" s="52">
         <v>42434.875</v>
@@ -3531,17 +3585,17 @@
         <v>15</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G33" s="53"/>
       <c r="H33" s="54"/>
@@ -3558,7 +3612,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N33" s="52">
         <v>42434.541666666664</v>
@@ -3570,20 +3624,20 @@
         <v>15</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>38</v>
@@ -3609,7 +3663,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -3630,14 +3684,14 @@
         <v>15</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="31" t="s">
@@ -3667,14 +3721,14 @@
         <v>15</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="27" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="37"/>
@@ -3700,7 +3754,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3715,7 +3769,7 @@
         <v>31</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O38" s="24"/>
     </row>
@@ -3724,14 +3778,14 @@
         <v>15</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="37"/>
@@ -3740,7 +3794,7 @@
         <v>37</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>39</v>
@@ -3749,7 +3803,7 @@
         <v>31</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N39" s="52">
         <v>42438.041666666664</v>
@@ -3761,14 +3815,14 @@
         <v>15</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="49"/>
@@ -3786,7 +3840,7 @@
         <v>31</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N40" s="58">
         <v>42437.958333333336</v>
@@ -3798,21 +3852,21 @@
         <v>15</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="27" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>50</v>
@@ -3827,7 +3881,7 @@
         <v>31</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N41" s="52">
         <v>42437.875</v>
@@ -3839,27 +3893,27 @@
         <v>15</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="27" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K42" s="25" t="s">
         <v>52</v>
@@ -3880,7 +3934,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -3899,23 +3953,23 @@
         <v>15</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
       <c r="H44" s="48"/>
       <c r="I44" s="42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K44" s="44" t="s">
         <v>39</v>
@@ -3928,7 +3982,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -3947,86 +4001,94 @@
         <v>15</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="31" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="L46" s="59"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="34"/>
+      <c r="N46" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="60" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L47" s="59"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="34"/>
+      <c r="N47" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="34" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="42"/>
       <c r="H48" s="43"/>
       <c r="I48" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="J48" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="J48" s="43" t="s">
-        <v>188</v>
-      </c>
       <c r="K48" s="26" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L48" s="59"/>
       <c r="O48" s="24"/>
@@ -4036,21 +4098,21 @@
         <v>15</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="42" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I49" s="47"/>
       <c r="J49" s="48"/>
@@ -4065,7 +4127,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
@@ -4084,34 +4146,34 @@
         <v>15</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="27" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I51" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K51" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L51" s="59"/>
       <c r="N51" s="33" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O51" s="34" t="s">
         <v>41</v>
@@ -4122,37 +4184,37 @@
         <v>15</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="27" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I52" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K52" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L52" s="59"/>
       <c r="N52" s="33" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -4160,21 +4222,21 @@
         <v>15</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="27" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="I53" s="31" t="s">
         <v>50</v>
@@ -4187,10 +4249,10 @@
       </c>
       <c r="L53" s="59"/>
       <c r="N53" s="33" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -4198,37 +4260,37 @@
         <v>15</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="27" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K54" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L54" s="59"/>
       <c r="N54" s="33" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
@@ -4236,37 +4298,37 @@
         <v>15</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="27" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="I55" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K55" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L55" s="59"/>
       <c r="N55" s="33" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
@@ -4274,23 +4336,23 @@
         <v>15</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F56" s="46"/>
       <c r="G56" s="47"/>
       <c r="H56" s="48"/>
       <c r="I56" s="42" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K56" s="44" t="s">
         <v>39</v>
@@ -4303,7 +4365,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -4322,27 +4384,27 @@
         <v>15</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="27" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="I58" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K58" s="25" t="s">
         <v>52</v>
@@ -4355,21 +4417,21 @@
         <v>15</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I59" s="37"/>
       <c r="J59" s="38"/>
@@ -4384,27 +4446,27 @@
         <v>15</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="27" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I60" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K60" s="25" t="s">
         <v>39</v>
@@ -4417,23 +4479,23 @@
         <v>15</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
       <c r="H61" s="48"/>
       <c r="I61" s="49" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K61" s="44" t="s">
         <v>39</v>
@@ -4446,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C62" s="62"/>
       <c r="D62" s="22"/>
@@ -4465,21 +4527,21 @@
         <v>15</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="I63" s="37"/>
       <c r="J63" s="38"/>
@@ -4494,21 +4556,21 @@
         <v>15</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="I64" s="37"/>
       <c r="J64" s="38"/>
@@ -4523,21 +4585,21 @@
         <v>15</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="27" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="31" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="38"/>
@@ -4552,7 +4614,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -4571,27 +4633,27 @@
         <v>15</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="27" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I67" s="63" t="s">
         <v>50</v>
       </c>
       <c r="J67" s="64" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K67" s="25" t="s">
         <v>52</v>
@@ -4604,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -4623,21 +4685,21 @@
         <v>15</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="I69" s="37"/>
       <c r="J69" s="38"/>
@@ -4652,7 +4714,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -4671,27 +4733,27 @@
         <v>15</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="K71" s="25" t="s">
         <v>52</v>
@@ -4704,7 +4766,7 @@
         <v>28</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -4723,27 +4785,27 @@
         <v>15</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="27" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="63" t="s">
         <v>48</v>
       </c>
       <c r="H73" s="64" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K73" s="25" t="s">
         <v>52</v>
@@ -4756,27 +4818,27 @@
         <v>15</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="27" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I74" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J74" s="32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K74" s="25" t="s">
         <v>52</v>
@@ -4789,27 +4851,27 @@
         <v>15</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="27" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I75" s="31" t="s">
         <v>48</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K75" s="25" t="s">
         <v>52</v>
@@ -4822,27 +4884,27 @@
         <v>15</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76" s="27" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I76" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J76" s="32" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K76" s="25" t="s">
         <v>52</v>
@@ -4855,27 +4917,27 @@
         <v>15</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="27" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H77" s="32" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="I77" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K77" s="25" t="s">
         <v>52</v>
@@ -4888,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -4907,27 +4969,27 @@
         <v>15</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="27" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K79" s="25" t="s">
         <v>52</v>
@@ -4940,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -4959,21 +5021,21 @@
         <v>15</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C81" s="41"/>
       <c r="D81" s="41" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E81" s="46" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F81" s="46"/>
       <c r="G81" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I81" s="47"/>
       <c r="J81" s="48"/>
@@ -4988,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -5007,18 +5069,18 @@
         <v>15</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="60" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H83" s="61" t="s">
         <v>38</v>
@@ -5027,7 +5089,7 @@
         <v>50</v>
       </c>
       <c r="J83" s="32" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K83" s="25" t="s">
         <v>52</v>
@@ -5040,27 +5102,27 @@
         <v>15</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="27" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I84" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J84" s="32" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K84" s="25" t="s">
         <v>52</v>
@@ -5073,7 +5135,7 @@
         <v>28</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -5092,14 +5154,14 @@
         <v>15</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C86" s="35"/>
       <c r="D86" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="31" t="s">
@@ -5121,27 +5183,27 @@
         <v>15</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="27" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="I87" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K87" s="25" t="s">
         <v>52</v>
@@ -5154,7 +5216,7 @@
         <v>28</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -5173,27 +5235,27 @@
         <v>15</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C89" s="27"/>
       <c r="D89" s="27" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="60" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="I89" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K89" s="25" t="s">
         <v>52</v>
@@ -5206,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -5225,21 +5287,21 @@
         <v>15</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E91" s="46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F91" s="46"/>
       <c r="G91" s="42" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H91" s="43" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I91" s="47"/>
       <c r="J91" s="48"/>
@@ -5254,7 +5316,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="65" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
@@ -5273,21 +5335,21 @@
         <v>15</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C93" s="67"/>
       <c r="D93" s="68" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E93" s="69" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F93" s="69"/>
       <c r="G93" s="70" t="s">
         <v>35</v>
       </c>
       <c r="H93" s="71" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I93" s="72"/>
       <c r="J93" s="73"/>
@@ -5302,7 +5364,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -5321,27 +5383,27 @@
         <v>15</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C95" s="35"/>
       <c r="D95" s="27" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="I95" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J95" s="32" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="K95" s="25" t="s">
         <v>52</v>
@@ -5354,27 +5416,27 @@
         <v>15</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C96" s="35"/>
       <c r="D96" s="27" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I96" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J96" s="32" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K96" s="25" t="s">
         <v>52</v>
@@ -5387,27 +5449,27 @@
         <v>15</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="27" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H97" s="32" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="I97" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K97" s="25" t="s">
         <v>52</v>
@@ -5420,14 +5482,14 @@
         <v>15</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C98" s="35"/>
       <c r="D98" s="27" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="31" t="s">
@@ -5440,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K98" s="25" t="s">
         <v>52</v>
@@ -5453,14 +5515,14 @@
         <v>15</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="27" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="31" t="s">
@@ -5482,27 +5544,27 @@
         <v>15</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="27" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H100" s="32" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I100" s="31" t="s">
         <v>50</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K100" s="25" t="s">
         <v>52</v>
@@ -5515,7 +5577,7 @@
         <v>28</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -5534,21 +5596,21 @@
         <v>15</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="27" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="I102" s="37"/>
       <c r="J102" s="38"/>
@@ -18016,46 +18078,46 @@
         <v>16</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F1" s="83" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="I1" s="83" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="J1" s="83" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K1" s="83" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L1" s="83" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M1" s="83" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="O1" s="83" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P1" s="83" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="84"/>
       <c r="R1" s="84"/>
@@ -18070,7 +18132,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D2" s="33">
         <v>49.9</v>
@@ -18079,19 +18141,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G2" s="33">
         <v>49.6</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="I2" s="33">
         <v>0.6</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K2" s="33">
         <v>27.6</v>
@@ -18100,13 +18162,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N2" s="33">
         <v>24.3</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P2" s="33">
         <v>23.1</v>
@@ -18120,7 +18182,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D3" s="33">
         <v>60.4</v>
@@ -18129,13 +18191,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G3" s="33">
         <v>38.1</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K3" s="33">
         <v>53.3</v>
@@ -18144,13 +18206,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N3" s="33">
         <v>15.8</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P3" s="33">
         <v>11.7</v>
@@ -18164,7 +18226,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D4" s="33">
         <v>52.7</v>
@@ -18173,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G4" s="33">
         <v>47.2</v>
@@ -18187,7 +18249,7 @@
         <v>60</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K5" s="33">
         <v>32.5</v>
@@ -18196,13 +18258,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="N5" s="33">
         <v>22.5</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P5" s="33">
         <v>22.3</v>
@@ -18216,7 +18278,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K6" s="33">
         <v>45.9</v>
@@ -18225,13 +18287,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="N6" s="33">
         <v>23.9</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P6" s="33">
         <v>21.4</v>
@@ -18245,7 +18307,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D7" s="33">
         <v>73.5</v>
@@ -18254,7 +18316,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G7" s="33">
         <v>26.0</v>
@@ -18268,7 +18330,7 @@
         <v>72</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D8" s="33">
         <v>77.8</v>
@@ -18277,13 +18339,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G8" s="33">
         <v>19.2</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K8" s="33">
         <v>43.4</v>
@@ -18292,13 +18354,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N8" s="33">
         <v>21.1</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P8" s="33">
         <v>18.7</v>
@@ -18309,10 +18371,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K9" s="33">
         <v>36.4</v>
@@ -18321,13 +18383,13 @@
         <v>1</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N9" s="33">
         <v>33.5</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P9" s="33">
         <v>15.1</v>
@@ -18338,10 +18400,10 @@
         <v>71</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D10" s="33">
         <v>66.3</v>
@@ -18350,13 +18412,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G10" s="33">
         <v>29.7</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K10" s="86">
         <v>32.8</v>
@@ -18365,13 +18427,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N10" s="88">
         <v>30.5</v>
       </c>
       <c r="O10" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P10" s="88">
         <v>24.9</v>
@@ -18382,10 +18444,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D11" s="33">
         <v>59.0</v>
@@ -18394,7 +18456,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G11" s="88">
         <v>40.3</v>
@@ -18405,10 +18467,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D12" s="90">
         <v>71.3</v>
@@ -18417,13 +18479,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G12" s="88">
         <v>28.2</v>
       </c>
       <c r="J12" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K12" s="86">
         <v>38.8</v>
@@ -18432,13 +18494,13 @@
         <v>1</v>
       </c>
       <c r="M12" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="N12" s="88">
         <v>24.4</v>
       </c>
       <c r="O12" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P12" s="88">
         <v>23.6</v>
@@ -18449,10 +18511,10 @@
         <v>71</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D13" s="90">
         <v>50.1</v>
@@ -18461,13 +18523,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G13" s="88">
         <v>48.7</v>
       </c>
       <c r="J13" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K13" s="86">
         <v>49.3</v>
@@ -18476,13 +18538,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N13" s="88">
         <v>18.0</v>
       </c>
       <c r="O13" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P13" s="88">
         <v>17.9</v>
@@ -18493,10 +18555,10 @@
         <v>71</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D14" s="92">
         <v>61.6</v>
@@ -18505,13 +18567,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G14" s="88">
         <v>38.4</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K14" s="94">
         <v>36.5</v>
@@ -18520,13 +18582,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N14" s="88">
         <v>29.0</v>
       </c>
       <c r="O14" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="P14" s="88">
         <v>21.3</v>
@@ -18537,10 +18599,10 @@
         <v>71</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D15" s="92">
         <v>51.9</v>
@@ -18549,13 +18611,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G15" s="88">
         <v>41.5</v>
       </c>
       <c r="J15" s="95" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K15" s="96">
         <v>34.4</v>
@@ -18564,13 +18626,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N15" s="88">
         <v>28.3</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P15" s="88">
         <v>26.0</v>
@@ -18581,10 +18643,10 @@
         <v>71</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D16" s="90">
         <v>66.1</v>
@@ -18593,13 +18655,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G16" s="88">
         <v>32.4</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K16" s="86">
         <v>38.9</v>
@@ -18608,13 +18670,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N16" s="88">
         <v>24.7</v>
       </c>
       <c r="O16" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P16" s="88">
         <v>21.2</v>
@@ -18625,10 +18687,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C17" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D17" s="90">
         <v>65.2</v>
@@ -18637,13 +18699,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G17" s="88">
         <v>33.2</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K17" s="96">
         <v>43.8</v>
@@ -18652,13 +18714,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N17" s="88">
         <v>26.8</v>
       </c>
       <c r="O17" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P17" s="88">
         <v>17.7</v>
@@ -18669,10 +18731,10 @@
         <v>71</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D18" s="92">
         <v>86.1</v>
@@ -18681,13 +18743,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G18" s="88">
         <v>13.6</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K18" s="86">
         <v>32.7</v>
@@ -18696,13 +18758,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="87" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N18" s="88">
         <v>30.4</v>
       </c>
       <c r="O18" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P18" s="88">
         <v>19.3</v>
@@ -18713,10 +18775,10 @@
         <v>71</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D19" s="90">
         <v>64.3</v>
@@ -18725,13 +18787,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G19" s="88">
         <v>35.2</v>
       </c>
       <c r="J19" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K19" s="86">
         <v>34.7</v>
@@ -18740,13 +18802,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="N19" s="88">
         <v>31.9</v>
       </c>
       <c r="O19" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P19" s="88">
         <v>16.9</v>
@@ -18757,10 +18819,10 @@
         <v>71</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D20" s="97">
         <v>73.0</v>
@@ -18769,7 +18831,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G20" s="97">
         <v>27.0</v>
@@ -18777,13 +18839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D21" s="92">
         <v>67.7</v>
@@ -18792,13 +18854,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G21" s="88">
         <v>32.3</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K21" s="96">
         <v>48.2</v>
@@ -18807,13 +18869,13 @@
         <v>1</v>
       </c>
       <c r="M21" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N21" s="88">
         <v>23.3</v>
       </c>
       <c r="O21" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P21" s="88">
         <v>16.7</v>
@@ -18821,13 +18883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K22" s="86">
         <v>35.9</v>
@@ -18836,13 +18898,13 @@
         <v>1</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N22" s="88">
         <v>31.6</v>
       </c>
       <c r="O22" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P22" s="88">
         <v>16.4</v>
@@ -18850,13 +18912,13 @@
     </row>
     <row r="23">
       <c r="A23" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C23" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D23" s="90">
         <v>71.1</v>
@@ -18865,13 +18927,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G23" s="88">
         <v>23.2</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K23" s="86">
         <v>41.4</v>
@@ -18880,13 +18942,13 @@
         <v>1</v>
       </c>
       <c r="M23" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N23" s="88">
         <v>37.8</v>
       </c>
       <c r="O23" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P23" s="88">
         <v>11.2</v>
@@ -18894,13 +18956,13 @@
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K24" s="96">
         <v>45.9</v>
@@ -18909,13 +18971,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N24" s="88">
         <v>32.6</v>
       </c>
       <c r="O24" s="87" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P24" s="88">
         <v>12.2</v>
@@ -18923,13 +18985,13 @@
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D25" s="92">
         <v>57.1</v>
@@ -18938,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G25" s="88">
         <v>42.9</v>
@@ -18946,13 +19008,13 @@
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D26" s="99">
         <v>64.3</v>
@@ -18961,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="100" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G26" s="101">
         <v>35.5</v>
@@ -18969,13 +19031,13 @@
     </row>
     <row r="27">
       <c r="A27" s="34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J27" s="98" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K27" s="99">
         <v>71.0</v>
@@ -18984,13 +19046,13 @@
         <v>1</v>
       </c>
       <c r="M27" s="100" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N27" s="101">
         <v>13.1</v>
       </c>
       <c r="O27" s="100" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P27" s="101">
         <v>8.6</v>
@@ -18998,13 +19060,13 @@
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K28" s="86">
         <v>42.4</v>
@@ -19013,13 +19075,13 @@
         <v>1</v>
       </c>
       <c r="M28" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N28" s="88">
         <v>32.7</v>
       </c>
       <c r="O28" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P28" s="88">
         <v>13.1</v>
@@ -19027,13 +19089,13 @@
     </row>
     <row r="29">
       <c r="A29" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J29" s="95" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K29" s="96">
         <v>45.4</v>
@@ -19042,13 +19104,13 @@
         <v>1</v>
       </c>
       <c r="M29" s="87" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N29" s="88">
         <v>28.1</v>
       </c>
       <c r="O29" s="87" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P29" s="88">
         <v>15.9</v>
@@ -19056,13 +19118,13 @@
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D30" s="92">
         <v>49.8</v>
@@ -19071,13 +19133,13 @@
         <v>1</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G30" s="88">
         <v>48.3</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K30" s="86">
         <v>36.5</v>
@@ -19086,13 +19148,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N30" s="88">
         <v>24.9</v>
       </c>
       <c r="O30" s="87" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P30" s="88">
         <v>24.3</v>
@@ -19100,13 +19162,13 @@
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D31" s="90">
         <v>82.6</v>
@@ -19115,13 +19177,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G31" s="88">
         <v>16.5</v>
       </c>
       <c r="J31" s="85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K31" s="86">
         <v>47.3</v>
@@ -19130,13 +19192,13 @@
         <v>1</v>
       </c>
       <c r="M31" s="87" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="N31" s="88">
         <v>36.3</v>
       </c>
       <c r="O31" s="87" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P31" s="88">
         <v>8.8</v>
@@ -22077,13 +22139,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>23</v>
@@ -22116,7 +22178,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -22132,14 +22194,14 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -22151,14 +22213,14 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
@@ -22169,7 +22231,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -22185,14 +22247,14 @@
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7">
@@ -22204,14 +22266,14 @@
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8">
@@ -22236,14 +22298,14 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
@@ -22255,14 +22317,14 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
@@ -22287,14 +22349,14 @@
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
@@ -22319,14 +22381,14 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
@@ -22355,14 +22417,14 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
@@ -22374,14 +22436,14 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18">
@@ -22393,14 +22455,14 @@
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
@@ -22412,14 +22474,14 @@
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
@@ -22431,14 +22493,14 @@
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21">
@@ -22450,14 +22512,14 @@
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22">
@@ -22469,14 +22531,14 @@
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="41" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23">
@@ -22488,14 +22550,14 @@
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
@@ -22507,14 +22569,14 @@
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25">
@@ -22526,14 +22588,14 @@
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26">
@@ -22545,14 +22607,14 @@
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27">
@@ -22564,14 +22626,14 @@
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28">
@@ -22583,14 +22645,14 @@
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29">
@@ -22602,14 +22664,14 @@
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30">
@@ -22621,14 +22683,14 @@
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="41" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31">
@@ -22640,14 +22702,14 @@
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32">
@@ -22659,14 +22721,14 @@
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33">
@@ -22678,14 +22740,14 @@
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34">
@@ -22697,14 +22759,14 @@
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35">
@@ -22716,14 +22778,14 @@
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36">
@@ -22735,14 +22797,14 @@
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37">
@@ -22754,14 +22816,14 @@
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38">
@@ -22773,14 +22835,14 @@
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
@@ -22792,14 +22854,14 @@
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
@@ -22811,14 +22873,14 @@
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
@@ -22830,14 +22892,14 @@
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="41" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
@@ -22845,7 +22907,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="106" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -22858,18 +22920,18 @@
         <v>15</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44">
@@ -22877,18 +22939,18 @@
         <v>15</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45">
@@ -22896,18 +22958,18 @@
         <v>15</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="35" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F45" s="107"/>
       <c r="G45" s="107" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46">
@@ -22915,18 +22977,18 @@
         <v>15</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F46" s="107"/>
       <c r="G46" s="107" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -22934,18 +22996,18 @@
         <v>15</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="35" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F47" s="107"/>
       <c r="G47" s="107" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
@@ -22953,18 +23015,18 @@
         <v>15</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F48" s="107"/>
       <c r="G48" s="107" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49">
@@ -22972,18 +23034,18 @@
         <v>15</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
@@ -22991,7 +23053,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -23004,18 +23066,18 @@
         <v>15</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52">
@@ -23023,18 +23085,18 @@
         <v>15</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
@@ -23042,7 +23104,7 @@
         <v>28</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -23055,18 +23117,18 @@
         <v>15</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55">
@@ -23074,18 +23136,18 @@
         <v>15</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="35" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56">
@@ -23093,18 +23155,18 @@
         <v>15</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="41" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57">
@@ -23112,18 +23174,18 @@
         <v>15</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58">
@@ -23131,18 +23193,18 @@
         <v>15</v>
       </c>
       <c r="B58" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59">
@@ -23150,18 +23212,18 @@
         <v>15</v>
       </c>
       <c r="B59" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60">
@@ -23169,18 +23231,18 @@
         <v>15</v>
       </c>
       <c r="B60" s="104" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
@@ -23188,7 +23250,7 @@
         <v>28</v>
       </c>
       <c r="B61" s="106" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -23201,18 +23263,18 @@
         <v>15</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C62" s="27"/>
       <c r="D62" s="27" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63">
@@ -23220,18 +23282,18 @@
         <v>15</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="41" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64">
@@ -23239,18 +23301,18 @@
         <v>15</v>
       </c>
       <c r="B64" s="104" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="26" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65">
@@ -23258,10 +23320,10 @@
         <v>28</v>
       </c>
       <c r="B65" s="106" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -23273,18 +23335,18 @@
         <v>15</v>
       </c>
       <c r="B66" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67">
@@ -23292,18 +23354,18 @@
         <v>15</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68">
@@ -23311,18 +23373,18 @@
         <v>15</v>
       </c>
       <c r="B68" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69">
@@ -23330,18 +23392,18 @@
         <v>15</v>
       </c>
       <c r="B69" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70">
@@ -23349,18 +23411,18 @@
         <v>15</v>
       </c>
       <c r="B70" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71">
@@ -23368,18 +23430,18 @@
         <v>15</v>
       </c>
       <c r="B71" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72">
@@ -23387,18 +23449,18 @@
         <v>15</v>
       </c>
       <c r="B72" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73">
@@ -23406,18 +23468,18 @@
         <v>15</v>
       </c>
       <c r="B73" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74">
@@ -23425,18 +23487,18 @@
         <v>15</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F74" s="40"/>
       <c r="G74" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75">
@@ -23444,18 +23506,18 @@
         <v>15</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="35" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76">
@@ -23463,18 +23525,18 @@
         <v>15</v>
       </c>
       <c r="B76" s="104" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76" s="35" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77">
@@ -23482,7 +23544,7 @@
         <v>28</v>
       </c>
       <c r="B77" s="106" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -23495,18 +23557,18 @@
         <v>15</v>
       </c>
       <c r="B78" s="105" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="41" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F78" s="40"/>
       <c r="G78" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79">
@@ -23514,7 +23576,7 @@
         <v>28</v>
       </c>
       <c r="B79" s="106" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -23527,18 +23589,18 @@
         <v>15</v>
       </c>
       <c r="B80" s="105" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="41" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F80" s="40"/>
       <c r="G80" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81">
@@ -23546,18 +23608,18 @@
         <v>15</v>
       </c>
       <c r="B81" s="104" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C81" s="35"/>
       <c r="D81" s="35" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82">
@@ -23565,18 +23627,18 @@
         <v>15</v>
       </c>
       <c r="B82" s="104" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="35" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83">
@@ -23584,18 +23646,18 @@
         <v>15</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C83" s="27"/>
       <c r="D83" s="27" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84">
@@ -23603,18 +23665,18 @@
         <v>15</v>
       </c>
       <c r="B84" s="104" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C84" s="27"/>
       <c r="D84" s="27" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85">
@@ -23622,16 +23684,16 @@
         <v>15</v>
       </c>
       <c r="B85" s="104" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C85" s="27"/>
       <c r="D85" s="27" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86">
@@ -23639,7 +23701,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -23652,18 +23714,18 @@
         <v>15</v>
       </c>
       <c r="B87" s="104" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C87" s="27"/>
       <c r="D87" s="27" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88">
@@ -23671,18 +23733,18 @@
         <v>15</v>
       </c>
       <c r="B88" s="104" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89">
@@ -23690,18 +23752,18 @@
         <v>15</v>
       </c>
       <c r="B89" s="104" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C89" s="35"/>
       <c r="D89" s="35" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90">
@@ -23709,7 +23771,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="106" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -23722,18 +23784,18 @@
         <v>15</v>
       </c>
       <c r="B91" s="104" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C91" s="35"/>
       <c r="D91" s="35" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92">
@@ -23741,18 +23803,18 @@
         <v>15</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C92" s="35"/>
       <c r="D92" s="35" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F92" s="26"/>
       <c r="G92" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93">
@@ -23760,7 +23822,7 @@
         <v>28</v>
       </c>
       <c r="B93" s="106" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -23773,18 +23835,18 @@
         <v>15</v>
       </c>
       <c r="B94" s="104" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="27" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95">
@@ -23792,7 +23854,7 @@
         <v>28</v>
       </c>
       <c r="B95" s="106" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -23805,18 +23867,18 @@
         <v>15</v>
       </c>
       <c r="B96" s="104" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C96" s="35"/>
       <c r="D96" s="35" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97">
@@ -23824,18 +23886,18 @@
         <v>15</v>
       </c>
       <c r="B97" s="104" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C97" s="35"/>
       <c r="D97" s="35" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98">
@@ -23843,7 +23905,7 @@
         <v>28</v>
       </c>
       <c r="B98" s="106" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -23856,18 +23918,18 @@
         <v>15</v>
       </c>
       <c r="B99" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="35" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100">
@@ -23875,18 +23937,18 @@
         <v>15</v>
       </c>
       <c r="B100" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="35" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101">
@@ -23894,18 +23956,18 @@
         <v>15</v>
       </c>
       <c r="B101" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C101" s="35"/>
       <c r="D101" s="35" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102">
@@ -23913,18 +23975,18 @@
         <v>15</v>
       </c>
       <c r="B102" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="35" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103">
@@ -23932,18 +23994,18 @@
         <v>15</v>
       </c>
       <c r="B103" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C103" s="35"/>
       <c r="D103" s="35" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104">
@@ -23951,18 +24013,18 @@
         <v>15</v>
       </c>
       <c r="B104" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F104" s="26"/>
       <c r="G104" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105">
@@ -23970,18 +24032,18 @@
         <v>15</v>
       </c>
       <c r="B105" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="35" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106">
@@ -23989,18 +24051,18 @@
         <v>15</v>
       </c>
       <c r="B106" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C106" s="35"/>
       <c r="D106" s="35" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107">
@@ -24008,18 +24070,18 @@
         <v>15</v>
       </c>
       <c r="B107" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C107" s="35"/>
       <c r="D107" s="35" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108">
@@ -24027,18 +24089,18 @@
         <v>15</v>
       </c>
       <c r="B108" s="104" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C108" s="35"/>
       <c r="D108" s="35" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F108" s="26"/>
       <c r="G108" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109">
@@ -24046,7 +24108,7 @@
         <v>28</v>
       </c>
       <c r="B109" s="106" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
@@ -24059,18 +24121,18 @@
         <v>15</v>
       </c>
       <c r="B110" s="104" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C110" s="35"/>
       <c r="D110" s="35" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F110" s="26"/>
       <c r="G110" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111">
@@ -24078,18 +24140,18 @@
         <v>15</v>
       </c>
       <c r="B111" s="104" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C111" s="35"/>
       <c r="D111" s="35" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F111" s="26"/>
       <c r="G111" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112">
@@ -24097,7 +24159,7 @@
         <v>28</v>
       </c>
       <c r="B112" s="106" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
@@ -24110,18 +24172,18 @@
         <v>15</v>
       </c>
       <c r="B113" s="105" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="41" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114">
@@ -24129,7 +24191,7 @@
         <v>28</v>
       </c>
       <c r="B114" s="106" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
@@ -24142,18 +24204,18 @@
         <v>15</v>
       </c>
       <c r="B115" s="104" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C115" s="35"/>
       <c r="D115" s="35" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F115" s="26"/>
       <c r="G115" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116">
@@ -24161,18 +24223,18 @@
         <v>15</v>
       </c>
       <c r="B116" s="104" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C116" s="27"/>
       <c r="D116" s="27" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117">
@@ -24180,18 +24242,18 @@
         <v>15</v>
       </c>
       <c r="B117" s="104" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C117" s="35"/>
       <c r="D117" s="35" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F117" s="26"/>
       <c r="G117" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118">
@@ -24199,18 +24261,18 @@
         <v>15</v>
       </c>
       <c r="B118" s="104" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C118" s="35"/>
       <c r="D118" s="35" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119">
@@ -24218,7 +24280,7 @@
         <v>28</v>
       </c>
       <c r="B119" s="106" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -24231,18 +24293,18 @@
         <v>15</v>
       </c>
       <c r="B120" s="104" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="35" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121">
@@ -24250,18 +24312,18 @@
         <v>15</v>
       </c>
       <c r="B121" s="104" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C121" s="35"/>
       <c r="D121" s="35" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122">
@@ -24269,18 +24331,18 @@
         <v>15</v>
       </c>
       <c r="B122" s="104" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C122" s="35"/>
       <c r="D122" s="35" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123">
@@ -24288,7 +24350,7 @@
         <v>28</v>
       </c>
       <c r="B123" s="106" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
@@ -24301,18 +24363,18 @@
         <v>15</v>
       </c>
       <c r="B124" s="104" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C124" s="27"/>
       <c r="D124" s="27" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125">
@@ -24320,18 +24382,18 @@
         <v>15</v>
       </c>
       <c r="B125" s="104" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C125" s="35"/>
       <c r="D125" s="35" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126">
@@ -24339,7 +24401,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="106" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
@@ -24352,18 +24414,18 @@
         <v>15</v>
       </c>
       <c r="B127" s="105" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C127" s="51"/>
       <c r="D127" s="51" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F127" s="40"/>
       <c r="G127" s="40" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128">
@@ -24371,7 +24433,7 @@
         <v>28</v>
       </c>
       <c r="B128" s="108" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
@@ -24384,18 +24446,18 @@
         <v>15</v>
       </c>
       <c r="B129" s="109" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C129" s="67"/>
       <c r="D129" s="67" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E129" s="68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F129" s="66"/>
       <c r="G129" s="66" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130">
@@ -24403,7 +24465,7 @@
         <v>28</v>
       </c>
       <c r="B130" s="106" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
@@ -24416,18 +24478,18 @@
         <v>15</v>
       </c>
       <c r="B131" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="35" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F131" s="26"/>
       <c r="G131" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132">
@@ -24435,18 +24497,18 @@
         <v>15</v>
       </c>
       <c r="B132" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="35" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133">
@@ -24454,18 +24516,18 @@
         <v>15</v>
       </c>
       <c r="B133" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C133" s="35"/>
       <c r="D133" s="35" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134">
@@ -24473,18 +24535,18 @@
         <v>15</v>
       </c>
       <c r="B134" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C134" s="35"/>
       <c r="D134" s="35" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135">
@@ -24492,18 +24554,18 @@
         <v>15</v>
       </c>
       <c r="B135" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C135" s="35"/>
       <c r="D135" s="35" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136">
@@ -24511,18 +24573,18 @@
         <v>15</v>
       </c>
       <c r="B136" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C136" s="35"/>
       <c r="D136" s="35" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137">
@@ -24530,18 +24592,18 @@
         <v>15</v>
       </c>
       <c r="B137" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C137" s="35"/>
       <c r="D137" s="35" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138">
@@ -24549,18 +24611,18 @@
         <v>15</v>
       </c>
       <c r="B138" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C138" s="35"/>
       <c r="D138" s="35" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139">
@@ -24568,18 +24630,18 @@
         <v>15</v>
       </c>
       <c r="B139" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C139" s="35"/>
       <c r="D139" s="35" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140">
@@ -24587,18 +24649,18 @@
         <v>15</v>
       </c>
       <c r="B140" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C140" s="35"/>
       <c r="D140" s="35" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141">
@@ -24606,18 +24668,18 @@
         <v>15</v>
       </c>
       <c r="B141" s="104" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C141" s="35"/>
       <c r="D141" s="35" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142">
@@ -24625,7 +24687,7 @@
         <v>28</v>
       </c>
       <c r="B142" s="106" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
@@ -24638,18 +24700,18 @@
         <v>15</v>
       </c>
       <c r="B143" s="104" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C143" s="35"/>
       <c r="D143" s="35" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144">

--- a/data/calendar.xlsx
+++ b/data/calendar.xlsx
@@ -632,13 +632,13 @@
     <t>Convention</t>
   </si>
   <si>
-    <t>Polls close at 7 pm</t>
+    <t>Caucusing ends at 4:00 p.m. EST</t>
   </si>
   <si>
     <t>Republican county conventions&lt;sup&gt;2&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>Polls close at 8 pm</t>
+    <t>Caucusing begins at 10 a.m. EST</t>
   </si>
   <si>
     <t>Guam</t>
@@ -4027,7 +4027,7 @@
         <v>204</v>
       </c>
       <c r="O46" s="34" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -4061,7 +4061,7 @@
         <v>206</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
